--- a/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.97143417407498</v>
+        <v>17.97143417407506</v>
       </c>
       <c r="C2">
-        <v>12.12645069222269</v>
+        <v>12.12645069222294</v>
       </c>
       <c r="D2">
-        <v>3.566522069703865</v>
+        <v>3.566522069703663</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.09187779453024</v>
+        <v>28.09187779453017</v>
       </c>
       <c r="G2">
-        <v>21.66405078869314</v>
+        <v>21.66405078869301</v>
       </c>
       <c r="H2">
-        <v>18.80438347481804</v>
+        <v>18.8043834748179</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.89802296405697</v>
+        <v>15.89802296405708</v>
       </c>
       <c r="K2">
-        <v>12.93904066273577</v>
+        <v>12.9390406627358</v>
       </c>
       <c r="L2">
-        <v>16.11311456940738</v>
+        <v>16.11311456940737</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.76040986847918</v>
+        <v>16.76040986847913</v>
       </c>
       <c r="C3">
-        <v>11.37244434516125</v>
+        <v>11.37244434516134</v>
       </c>
       <c r="D3">
-        <v>3.63432978258819</v>
+        <v>3.634329782588056</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.86187719343381</v>
+        <v>26.86187719343383</v>
       </c>
       <c r="G3">
         <v>20.90869730802209</v>
       </c>
       <c r="H3">
-        <v>18.42680825912441</v>
+        <v>18.42680825912443</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.89328661970032</v>
+        <v>14.89328661970029</v>
       </c>
       <c r="K3">
-        <v>12.2246088294548</v>
+        <v>12.22460882945476</v>
       </c>
       <c r="L3">
-        <v>15.00578755941567</v>
+        <v>15.00578755941569</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.97643009213672</v>
+        <v>15.97643009213676</v>
       </c>
       <c r="C4">
-        <v>10.88631816246168</v>
+        <v>10.88631816246167</v>
       </c>
       <c r="D4">
         <v>3.675890886564833</v>
@@ -500,25 +500,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.10963028441542</v>
+        <v>26.10963028441549</v>
       </c>
       <c r="G4">
-        <v>20.45562496152515</v>
+        <v>20.45562496152519</v>
       </c>
       <c r="H4">
-        <v>18.21160720310418</v>
+        <v>18.21160720310424</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.24462942143973</v>
+        <v>14.2446294214398</v>
       </c>
       <c r="K4">
-        <v>11.77864924774561</v>
+        <v>11.77864924774562</v>
       </c>
       <c r="L4">
-        <v>14.29143444328819</v>
+        <v>14.29143444328822</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.64669411167761</v>
+        <v>15.64669411167766</v>
       </c>
       <c r="C5">
-        <v>10.68237565955165</v>
+        <v>10.6823756595515</v>
       </c>
       <c r="D5">
-        <v>3.692832229081272</v>
+        <v>3.692832229081138</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.80416524142389</v>
+        <v>25.80416524142392</v>
       </c>
       <c r="G5">
-        <v>20.27381910724673</v>
+        <v>20.27381910724672</v>
       </c>
       <c r="H5">
-        <v>18.12799707773329</v>
+        <v>18.12799707773326</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.97227921750201</v>
+        <v>13.97227921750199</v>
       </c>
       <c r="K5">
-        <v>11.59524529045912</v>
+        <v>11.5952452904591</v>
       </c>
       <c r="L5">
-        <v>13.99155297955233</v>
+        <v>13.99155297955236</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.59131946743095</v>
+        <v>15.59131946743104</v>
       </c>
       <c r="C6">
-        <v>10.64815809870896</v>
+        <v>10.64815809870889</v>
       </c>
       <c r="D6">
-        <v>3.695646266135538</v>
+        <v>3.695646266135741</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.75351895858028</v>
+        <v>25.75351895858016</v>
       </c>
       <c r="G6">
-        <v>20.24380494429899</v>
+        <v>20.24380494429887</v>
       </c>
       <c r="H6">
-        <v>18.11435747440892</v>
+        <v>18.11435747440876</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.92657078387919</v>
+        <v>13.92657078387923</v>
       </c>
       <c r="K6">
-        <v>11.56469585836686</v>
+        <v>11.56469585836687</v>
       </c>
       <c r="L6">
-        <v>13.94122465774327</v>
+        <v>13.94122465774329</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.97202481410681</v>
+        <v>15.97202481410687</v>
       </c>
       <c r="C7">
-        <v>10.88359138932432</v>
+        <v>10.88359138932434</v>
       </c>
       <c r="D7">
-        <v>3.676119314308413</v>
+        <v>3.676119314308077</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.10550582226875</v>
+        <v>26.1055058222687</v>
       </c>
       <c r="G7">
-        <v>20.45316144882165</v>
+        <v>20.45316144882157</v>
       </c>
       <c r="H7">
-        <v>18.21046319716663</v>
+        <v>18.21046319716653</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.24098890582951</v>
+        <v>14.24098890582955</v>
       </c>
       <c r="K7">
-        <v>11.77618231909572</v>
+        <v>11.77618231909573</v>
       </c>
       <c r="L7">
-        <v>14.28742581743279</v>
+        <v>14.28742581743278</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.56219788408113</v>
+        <v>17.56219788408118</v>
       </c>
       <c r="C8">
-        <v>11.87126154795479</v>
+        <v>11.87126154795484</v>
       </c>
       <c r="D8">
-        <v>3.589931896939316</v>
+        <v>3.589931896939248</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.66733956219349</v>
+        <v>27.66733956219344</v>
       </c>
       <c r="G8">
-        <v>21.40145471345018</v>
+        <v>21.40145471345009</v>
       </c>
       <c r="H8">
-        <v>18.67068833475244</v>
+        <v>18.67068833475236</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.55815243650895</v>
+        <v>15.55815243650903</v>
       </c>
       <c r="K8">
         <v>12.6943024534383</v>
       </c>
       <c r="L8">
-        <v>15.73838631911387</v>
+        <v>15.73838631911391</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,31 +681,31 @@
         <v>20.36477175436976</v>
       </c>
       <c r="C9">
-        <v>13.62586938357376</v>
+        <v>13.62586938357377</v>
       </c>
       <c r="D9">
-        <v>3.419188053716961</v>
+        <v>3.41918805371696</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.74194736159437</v>
+        <v>30.74194736159442</v>
       </c>
       <c r="G9">
-        <v>23.34124584790371</v>
+        <v>23.34124584790376</v>
       </c>
       <c r="H9">
-        <v>19.70914899757445</v>
+        <v>19.70914899757453</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.89166518366786</v>
+        <v>17.89166518366783</v>
       </c>
       <c r="K9">
-        <v>14.43374891246193</v>
+        <v>14.43374891246192</v>
       </c>
       <c r="L9">
         <v>18.31608266473062</v>
@@ -719,34 +719,34 @@
         <v>22.23875230876158</v>
       </c>
       <c r="C10">
-        <v>14.80711116972738</v>
+        <v>14.80711116972736</v>
       </c>
       <c r="D10">
-        <v>3.290911875007591</v>
+        <v>3.290911875007657</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.99695464388834</v>
+        <v>32.99695464388833</v>
       </c>
       <c r="G10">
-        <v>24.81070107180565</v>
+        <v>24.81070107180564</v>
       </c>
       <c r="H10">
-        <v>20.56040976215021</v>
+        <v>20.5604097621502</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.45856596663745</v>
+        <v>19.45856596663744</v>
       </c>
       <c r="K10">
-        <v>15.90842364481412</v>
+        <v>15.90842364481414</v>
       </c>
       <c r="L10">
-        <v>20.05557132272825</v>
+        <v>20.05557132272826</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.0529160621677</v>
+        <v>23.05291606216767</v>
       </c>
       <c r="C11">
         <v>15.32203199401317</v>
       </c>
       <c r="D11">
-        <v>3.231492101256704</v>
+        <v>3.231492101256904</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,22 +769,22 @@
         <v>34.0210180373905</v>
       </c>
       <c r="G11">
-        <v>25.4885173210521</v>
+        <v>25.48851732105213</v>
       </c>
       <c r="H11">
-        <v>20.96809104992364</v>
+        <v>20.96809104992369</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.14064504064207</v>
+        <v>20.14064504064206</v>
       </c>
       <c r="K11">
         <v>16.55651903094881</v>
       </c>
       <c r="L11">
-        <v>20.81559919681646</v>
+        <v>20.81559919681648</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.35587532272734</v>
+        <v>23.35587532272741</v>
       </c>
       <c r="C12">
-        <v>15.51388989621161</v>
+        <v>15.51388989621164</v>
       </c>
       <c r="D12">
-        <v>3.208795649187639</v>
+        <v>3.208795649187836</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.40856868790712</v>
+        <v>34.40856868790722</v>
       </c>
       <c r="G12">
-        <v>25.74656217636374</v>
+        <v>25.74656217636382</v>
       </c>
       <c r="H12">
-        <v>21.1255247385054</v>
+        <v>21.12552473850545</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.39464006441111</v>
+        <v>20.39464006441123</v>
       </c>
       <c r="K12">
-        <v>16.7988779742354</v>
+        <v>16.79887797423538</v>
       </c>
       <c r="L12">
-        <v>21.09910942372574</v>
+        <v>21.09910942372577</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.29086265596699</v>
+        <v>23.29086265596697</v>
       </c>
       <c r="C13">
-        <v>15.47270748023127</v>
+        <v>15.47270748023148</v>
       </c>
       <c r="D13">
-        <v>3.213693154117037</v>
+        <v>3.213693154116971</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.32511237498405</v>
+        <v>34.32511237498404</v>
       </c>
       <c r="G13">
-        <v>25.69092572076396</v>
+        <v>25.69092572076394</v>
       </c>
       <c r="H13">
-        <v>21.09148073611509</v>
+        <v>21.09148073611507</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.34012650901771</v>
+        <v>20.34012650901774</v>
       </c>
       <c r="K13">
-        <v>16.74681416041791</v>
+        <v>16.74681416041793</v>
       </c>
       <c r="L13">
-        <v>21.03823804022298</v>
+        <v>21.03823804022299</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.07794686958589</v>
+        <v>23.07794686958593</v>
       </c>
       <c r="C14">
-        <v>15.3378784264824</v>
+        <v>15.33787842648243</v>
       </c>
       <c r="D14">
-        <v>3.229629027058264</v>
+        <v>3.229629027058198</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.05290652735169</v>
+        <v>34.05290652735176</v>
       </c>
       <c r="G14">
-        <v>25.5097190407973</v>
+        <v>25.50971904079735</v>
       </c>
       <c r="H14">
-        <v>20.98098129109037</v>
+        <v>20.98098129109042</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.16162664858633</v>
+        <v>20.16162664858634</v>
       </c>
       <c r="K14">
-        <v>16.57651809912459</v>
+        <v>16.57651809912461</v>
       </c>
       <c r="L14">
-        <v>20.83900861730812</v>
+        <v>20.83900861730814</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.94683860108014</v>
+        <v>22.94683860108016</v>
       </c>
       <c r="C15">
-        <v>15.25488697545179</v>
+        <v>15.25488697545168</v>
       </c>
       <c r="D15">
-        <v>3.239363418352287</v>
+        <v>3.239363418352155</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.88614301287775</v>
+        <v>33.88614301287768</v>
       </c>
       <c r="G15">
-        <v>25.39890478042052</v>
+        <v>25.39890478042046</v>
       </c>
       <c r="H15">
-        <v>20.91369858302675</v>
+        <v>20.91369858302667</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>20.05173512161899</v>
       </c>
       <c r="K15">
-        <v>16.4718148919611</v>
+        <v>16.47181489196108</v>
       </c>
       <c r="L15">
-        <v>20.71642174673579</v>
+        <v>20.71642174673575</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.18478732147327</v>
+        <v>22.18478732147332</v>
       </c>
       <c r="C16">
-        <v>14.77301622591186</v>
+        <v>14.77301622591196</v>
       </c>
       <c r="D16">
-        <v>3.294770147714175</v>
+        <v>3.294770147714042</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.92999372014222</v>
+        <v>32.92999372014218</v>
       </c>
       <c r="G16">
-        <v>24.76659350904012</v>
+        <v>24.76659350904006</v>
       </c>
       <c r="H16">
-        <v>20.53418749779311</v>
+        <v>20.53418749779306</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.41338260935547</v>
+        <v>19.41338260935553</v>
       </c>
       <c r="K16">
-        <v>15.86562882050075</v>
+        <v>15.86562882050073</v>
       </c>
       <c r="L16">
         <v>20.00528912297401</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.70759044448379</v>
+        <v>21.70759044448386</v>
       </c>
       <c r="C17">
-        <v>14.47172134595892</v>
+        <v>14.47172134595893</v>
       </c>
       <c r="D17">
-        <v>3.3284587889679</v>
+        <v>3.328458788967767</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.34296289464286</v>
+        <v>32.34296289464288</v>
       </c>
       <c r="G17">
-        <v>24.38109013770982</v>
+        <v>24.38109013770981</v>
       </c>
       <c r="H17">
-        <v>20.30668068805889</v>
+        <v>20.30668068805885</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.01399008925273</v>
+        <v>19.01399008925282</v>
       </c>
       <c r="K17">
         <v>15.4880701067812</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.42950195480104</v>
+        <v>21.42950195480107</v>
       </c>
       <c r="C18">
         <v>14.29630659901401</v>
       </c>
       <c r="D18">
-        <v>3.347738032877404</v>
+        <v>3.3477380328774</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.00514809596334</v>
+        <v>32.00514809596331</v>
       </c>
       <c r="G18">
-        <v>24.16023493991008</v>
+        <v>24.16023493991005</v>
       </c>
       <c r="H18">
-        <v>20.1777408414423</v>
+        <v>20.17774084144224</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.78137097212695</v>
+        <v>18.78137097212699</v>
       </c>
       <c r="K18">
-        <v>15.26875385468624</v>
+        <v>15.26875385468622</v>
       </c>
       <c r="L18">
         <v>19.30274993076186</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.33471993968924</v>
+        <v>21.33471993968936</v>
       </c>
       <c r="C19">
-        <v>14.23654778777495</v>
+        <v>14.23654778777502</v>
       </c>
       <c r="D19">
-        <v>3.354250101977179</v>
+        <v>3.354250101977042</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.89074147054481</v>
+        <v>31.89074147054485</v>
       </c>
       <c r="G19">
         <v>24.08560763181098</v>
       </c>
       <c r="H19">
-        <v>20.13440989939334</v>
+        <v>20.13440989939329</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.70210874169849</v>
+        <v>18.70210874169858</v>
       </c>
       <c r="K19">
         <v>15.19412111950454</v>
       </c>
       <c r="L19">
-        <v>19.21474346221865</v>
+        <v>19.21474346221871</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.7587621266909</v>
+        <v>21.758762126691</v>
       </c>
       <c r="C20">
-        <v>14.50401325745995</v>
+        <v>14.50401325745993</v>
       </c>
       <c r="D20">
-        <v>3.324882963783816</v>
+        <v>3.324882963783751</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.40547110145803</v>
+        <v>32.40547110145798</v>
       </c>
       <c r="G20">
-        <v>24.42203691795583</v>
+        <v>24.42203691795577</v>
       </c>
       <c r="H20">
-        <v>20.33070009912003</v>
+        <v>20.33070009911993</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.05680531444345</v>
+        <v>19.05680531444349</v>
       </c>
       <c r="K20">
-        <v>15.52848341568317</v>
+        <v>15.52848341568309</v>
       </c>
       <c r="L20">
-        <v>19.60874191854343</v>
+        <v>19.60874191854342</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.14062912853007</v>
+        <v>23.14062912853018</v>
       </c>
       <c r="C21">
-        <v>15.37756515130902</v>
+        <v>15.37756515130893</v>
       </c>
       <c r="D21">
-        <v>3.22495394038332</v>
+        <v>3.224953940383388</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.21417184608415</v>
+        <v>20.21417184608421</v>
       </c>
       <c r="K21">
-        <v>16.6266194531946</v>
+        <v>16.62661945319458</v>
       </c>
       <c r="L21">
-        <v>20.89764200228956</v>
+        <v>20.89764200228959</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.01268107945705</v>
+        <v>24.01268107945689</v>
       </c>
       <c r="C22">
-        <v>15.93028365983206</v>
+        <v>15.93028365983207</v>
       </c>
       <c r="D22">
         <v>3.158481932087797</v>
@@ -1184,25 +1184,25 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.26048143157605</v>
+        <v>35.26048143157609</v>
       </c>
       <c r="G22">
-        <v>26.31656628206327</v>
+        <v>26.31656628206331</v>
       </c>
       <c r="H22">
-        <v>21.4773744362578</v>
+        <v>21.47737443625786</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.94562128618341</v>
+        <v>20.9456212861833</v>
       </c>
       <c r="K22">
-        <v>17.32659055155705</v>
+        <v>17.3265905515571</v>
       </c>
       <c r="L22">
-        <v>21.7150831055047</v>
+        <v>21.71508310550465</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.55003592596913</v>
+        <v>23.55003592596903</v>
       </c>
       <c r="C23">
         <v>15.63691756724541</v>
       </c>
       <c r="D23">
-        <v>3.194080921052687</v>
+        <v>3.19408092105282</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.65874995286089</v>
+        <v>34.65874995286093</v>
       </c>
       <c r="G23">
-        <v>25.91356716309406</v>
+        <v>25.91356716309411</v>
       </c>
       <c r="H23">
-        <v>21.22803993221446</v>
+        <v>21.22803993221454</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.55747140059858</v>
+        <v>20.55747140059851</v>
       </c>
       <c r="K23">
-        <v>16.95454865121074</v>
+        <v>16.95454865121072</v>
       </c>
       <c r="L23">
-        <v>21.28100806573281</v>
+        <v>21.2810080657328</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>21.73563907571425</v>
       </c>
       <c r="C24">
-        <v>14.48942093221954</v>
+        <v>14.48942093221943</v>
       </c>
       <c r="D24">
-        <v>3.326499867837404</v>
+        <v>3.326499867837401</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.37721214699029</v>
+        <v>32.3772121469904</v>
       </c>
       <c r="G24">
-        <v>24.4035224633601</v>
+        <v>24.40352246336018</v>
       </c>
       <c r="H24">
-        <v>20.3198351480988</v>
+        <v>20.3198351480989</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.03745791399673</v>
+        <v>19.03745791399668</v>
       </c>
       <c r="K24">
-        <v>15.51021959094936</v>
+        <v>15.51021959094935</v>
       </c>
       <c r="L24">
-        <v>19.58723919931364</v>
+        <v>19.58723919931363</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.63967783599103</v>
+        <v>19.63967783599113</v>
       </c>
       <c r="C25">
-        <v>13.17042659992456</v>
+        <v>13.17042659992452</v>
       </c>
       <c r="D25">
-        <v>3.465736477396191</v>
+        <v>3.465736477396195</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.91030999308657</v>
+        <v>29.91030999308645</v>
       </c>
       <c r="G25">
-        <v>22.80847646020992</v>
+        <v>22.80847646020981</v>
       </c>
       <c r="H25">
-        <v>19.41310419612049</v>
+        <v>19.41310419612038</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.28668111938829</v>
+        <v>17.28668111938832</v>
       </c>
       <c r="K25">
         <v>13.96914139153026</v>
       </c>
       <c r="L25">
-        <v>17.64654134069653</v>
+        <v>17.64654134069654</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.97143417407506</v>
+        <v>17.97143417407498</v>
       </c>
       <c r="C2">
-        <v>12.12645069222294</v>
+        <v>12.12645069222269</v>
       </c>
       <c r="D2">
-        <v>3.566522069703663</v>
+        <v>3.566522069703865</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.09187779453017</v>
+        <v>28.09187779453024</v>
       </c>
       <c r="G2">
-        <v>21.66405078869301</v>
+        <v>21.66405078869314</v>
       </c>
       <c r="H2">
-        <v>18.8043834748179</v>
+        <v>18.80438347481804</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.89802296405708</v>
+        <v>15.89802296405697</v>
       </c>
       <c r="K2">
-        <v>12.9390406627358</v>
+        <v>12.93904066273577</v>
       </c>
       <c r="L2">
-        <v>16.11311456940737</v>
+        <v>16.11311456940738</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.76040986847913</v>
+        <v>16.76040986847918</v>
       </c>
       <c r="C3">
-        <v>11.37244434516134</v>
+        <v>11.37244434516125</v>
       </c>
       <c r="D3">
-        <v>3.634329782588056</v>
+        <v>3.63432978258819</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.86187719343383</v>
+        <v>26.86187719343381</v>
       </c>
       <c r="G3">
         <v>20.90869730802209</v>
       </c>
       <c r="H3">
-        <v>18.42680825912443</v>
+        <v>18.42680825912441</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.89328661970029</v>
+        <v>14.89328661970032</v>
       </c>
       <c r="K3">
-        <v>12.22460882945476</v>
+        <v>12.2246088294548</v>
       </c>
       <c r="L3">
-        <v>15.00578755941569</v>
+        <v>15.00578755941567</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.97643009213676</v>
+        <v>15.97643009213672</v>
       </c>
       <c r="C4">
-        <v>10.88631816246167</v>
+        <v>10.88631816246168</v>
       </c>
       <c r="D4">
         <v>3.675890886564833</v>
@@ -500,25 +500,25 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.10963028441549</v>
+        <v>26.10963028441542</v>
       </c>
       <c r="G4">
-        <v>20.45562496152519</v>
+        <v>20.45562496152515</v>
       </c>
       <c r="H4">
-        <v>18.21160720310424</v>
+        <v>18.21160720310418</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.2446294214398</v>
+        <v>14.24462942143973</v>
       </c>
       <c r="K4">
-        <v>11.77864924774562</v>
+        <v>11.77864924774561</v>
       </c>
       <c r="L4">
-        <v>14.29143444328822</v>
+        <v>14.29143444328819</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.64669411167766</v>
+        <v>15.64669411167761</v>
       </c>
       <c r="C5">
-        <v>10.6823756595515</v>
+        <v>10.68237565955165</v>
       </c>
       <c r="D5">
-        <v>3.692832229081138</v>
+        <v>3.692832229081272</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.80416524142392</v>
+        <v>25.80416524142389</v>
       </c>
       <c r="G5">
-        <v>20.27381910724672</v>
+        <v>20.27381910724673</v>
       </c>
       <c r="H5">
-        <v>18.12799707773326</v>
+        <v>18.12799707773329</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.97227921750199</v>
+        <v>13.97227921750201</v>
       </c>
       <c r="K5">
-        <v>11.5952452904591</v>
+        <v>11.59524529045912</v>
       </c>
       <c r="L5">
-        <v>13.99155297955236</v>
+        <v>13.99155297955233</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.59131946743104</v>
+        <v>15.59131946743095</v>
       </c>
       <c r="C6">
-        <v>10.64815809870889</v>
+        <v>10.64815809870896</v>
       </c>
       <c r="D6">
-        <v>3.695646266135741</v>
+        <v>3.695646266135538</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.75351895858016</v>
+        <v>25.75351895858028</v>
       </c>
       <c r="G6">
-        <v>20.24380494429887</v>
+        <v>20.24380494429899</v>
       </c>
       <c r="H6">
-        <v>18.11435747440876</v>
+        <v>18.11435747440892</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.92657078387923</v>
+        <v>13.92657078387919</v>
       </c>
       <c r="K6">
-        <v>11.56469585836687</v>
+        <v>11.56469585836686</v>
       </c>
       <c r="L6">
-        <v>13.94122465774329</v>
+        <v>13.94122465774327</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.97202481410687</v>
+        <v>15.97202481410681</v>
       </c>
       <c r="C7">
-        <v>10.88359138932434</v>
+        <v>10.88359138932432</v>
       </c>
       <c r="D7">
-        <v>3.676119314308077</v>
+        <v>3.676119314308413</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.1055058222687</v>
+        <v>26.10550582226875</v>
       </c>
       <c r="G7">
-        <v>20.45316144882157</v>
+        <v>20.45316144882165</v>
       </c>
       <c r="H7">
-        <v>18.21046319716653</v>
+        <v>18.21046319716663</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.24098890582955</v>
+        <v>14.24098890582951</v>
       </c>
       <c r="K7">
-        <v>11.77618231909573</v>
+        <v>11.77618231909572</v>
       </c>
       <c r="L7">
-        <v>14.28742581743278</v>
+        <v>14.28742581743279</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.56219788408118</v>
+        <v>17.56219788408113</v>
       </c>
       <c r="C8">
-        <v>11.87126154795484</v>
+        <v>11.87126154795479</v>
       </c>
       <c r="D8">
-        <v>3.589931896939248</v>
+        <v>3.589931896939316</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.66733956219344</v>
+        <v>27.66733956219349</v>
       </c>
       <c r="G8">
-        <v>21.40145471345009</v>
+        <v>21.40145471345018</v>
       </c>
       <c r="H8">
-        <v>18.67068833475236</v>
+        <v>18.67068833475244</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>15.55815243650903</v>
+        <v>15.55815243650895</v>
       </c>
       <c r="K8">
         <v>12.6943024534383</v>
       </c>
       <c r="L8">
-        <v>15.73838631911391</v>
+        <v>15.73838631911387</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,31 +681,31 @@
         <v>20.36477175436976</v>
       </c>
       <c r="C9">
-        <v>13.62586938357377</v>
+        <v>13.62586938357376</v>
       </c>
       <c r="D9">
-        <v>3.41918805371696</v>
+        <v>3.419188053716961</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.74194736159442</v>
+        <v>30.74194736159437</v>
       </c>
       <c r="G9">
-        <v>23.34124584790376</v>
+        <v>23.34124584790371</v>
       </c>
       <c r="H9">
-        <v>19.70914899757453</v>
+        <v>19.70914899757445</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.89166518366783</v>
+        <v>17.89166518366786</v>
       </c>
       <c r="K9">
-        <v>14.43374891246192</v>
+        <v>14.43374891246193</v>
       </c>
       <c r="L9">
         <v>18.31608266473062</v>
@@ -719,34 +719,34 @@
         <v>22.23875230876158</v>
       </c>
       <c r="C10">
-        <v>14.80711116972736</v>
+        <v>14.80711116972738</v>
       </c>
       <c r="D10">
-        <v>3.290911875007657</v>
+        <v>3.290911875007591</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.99695464388833</v>
+        <v>32.99695464388834</v>
       </c>
       <c r="G10">
-        <v>24.81070107180564</v>
+        <v>24.81070107180565</v>
       </c>
       <c r="H10">
-        <v>20.5604097621502</v>
+        <v>20.56040976215021</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.45856596663744</v>
+        <v>19.45856596663745</v>
       </c>
       <c r="K10">
-        <v>15.90842364481414</v>
+        <v>15.90842364481412</v>
       </c>
       <c r="L10">
-        <v>20.05557132272826</v>
+        <v>20.05557132272825</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.05291606216767</v>
+        <v>23.0529160621677</v>
       </c>
       <c r="C11">
         <v>15.32203199401317</v>
       </c>
       <c r="D11">
-        <v>3.231492101256904</v>
+        <v>3.231492101256704</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -769,22 +769,22 @@
         <v>34.0210180373905</v>
       </c>
       <c r="G11">
-        <v>25.48851732105213</v>
+        <v>25.4885173210521</v>
       </c>
       <c r="H11">
-        <v>20.96809104992369</v>
+        <v>20.96809104992364</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.14064504064206</v>
+        <v>20.14064504064207</v>
       </c>
       <c r="K11">
         <v>16.55651903094881</v>
       </c>
       <c r="L11">
-        <v>20.81559919681648</v>
+        <v>20.81559919681646</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.35587532272741</v>
+        <v>23.35587532272734</v>
       </c>
       <c r="C12">
-        <v>15.51388989621164</v>
+        <v>15.51388989621161</v>
       </c>
       <c r="D12">
-        <v>3.208795649187836</v>
+        <v>3.208795649187639</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.40856868790722</v>
+        <v>34.40856868790712</v>
       </c>
       <c r="G12">
-        <v>25.74656217636382</v>
+        <v>25.74656217636374</v>
       </c>
       <c r="H12">
-        <v>21.12552473850545</v>
+        <v>21.1255247385054</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.39464006441123</v>
+        <v>20.39464006441111</v>
       </c>
       <c r="K12">
-        <v>16.79887797423538</v>
+        <v>16.7988779742354</v>
       </c>
       <c r="L12">
-        <v>21.09910942372577</v>
+        <v>21.09910942372574</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.29086265596697</v>
+        <v>23.29086265596699</v>
       </c>
       <c r="C13">
-        <v>15.47270748023148</v>
+        <v>15.47270748023127</v>
       </c>
       <c r="D13">
-        <v>3.213693154116971</v>
+        <v>3.213693154117037</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.32511237498404</v>
+        <v>34.32511237498405</v>
       </c>
       <c r="G13">
-        <v>25.69092572076394</v>
+        <v>25.69092572076396</v>
       </c>
       <c r="H13">
-        <v>21.09148073611507</v>
+        <v>21.09148073611509</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.34012650901774</v>
+        <v>20.34012650901771</v>
       </c>
       <c r="K13">
-        <v>16.74681416041793</v>
+        <v>16.74681416041791</v>
       </c>
       <c r="L13">
-        <v>21.03823804022299</v>
+        <v>21.03823804022298</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.07794686958593</v>
+        <v>23.07794686958589</v>
       </c>
       <c r="C14">
-        <v>15.33787842648243</v>
+        <v>15.3378784264824</v>
       </c>
       <c r="D14">
-        <v>3.229629027058198</v>
+        <v>3.229629027058264</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.05290652735176</v>
+        <v>34.05290652735169</v>
       </c>
       <c r="G14">
-        <v>25.50971904079735</v>
+        <v>25.5097190407973</v>
       </c>
       <c r="H14">
-        <v>20.98098129109042</v>
+        <v>20.98098129109037</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.16162664858634</v>
+        <v>20.16162664858633</v>
       </c>
       <c r="K14">
-        <v>16.57651809912461</v>
+        <v>16.57651809912459</v>
       </c>
       <c r="L14">
-        <v>20.83900861730814</v>
+        <v>20.83900861730812</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.94683860108016</v>
+        <v>22.94683860108014</v>
       </c>
       <c r="C15">
-        <v>15.25488697545168</v>
+        <v>15.25488697545179</v>
       </c>
       <c r="D15">
-        <v>3.239363418352155</v>
+        <v>3.239363418352287</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.88614301287768</v>
+        <v>33.88614301287775</v>
       </c>
       <c r="G15">
-        <v>25.39890478042046</v>
+        <v>25.39890478042052</v>
       </c>
       <c r="H15">
-        <v>20.91369858302667</v>
+        <v>20.91369858302675</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>20.05173512161899</v>
       </c>
       <c r="K15">
-        <v>16.47181489196108</v>
+        <v>16.4718148919611</v>
       </c>
       <c r="L15">
-        <v>20.71642174673575</v>
+        <v>20.71642174673579</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,34 +944,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.18478732147332</v>
+        <v>22.18478732147327</v>
       </c>
       <c r="C16">
-        <v>14.77301622591196</v>
+        <v>14.77301622591186</v>
       </c>
       <c r="D16">
-        <v>3.294770147714042</v>
+        <v>3.294770147714175</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.92999372014218</v>
+        <v>32.92999372014222</v>
       </c>
       <c r="G16">
-        <v>24.76659350904006</v>
+        <v>24.76659350904012</v>
       </c>
       <c r="H16">
-        <v>20.53418749779306</v>
+        <v>20.53418749779311</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.41338260935553</v>
+        <v>19.41338260935547</v>
       </c>
       <c r="K16">
-        <v>15.86562882050073</v>
+        <v>15.86562882050075</v>
       </c>
       <c r="L16">
         <v>20.00528912297401</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.70759044448386</v>
+        <v>21.70759044448379</v>
       </c>
       <c r="C17">
-        <v>14.47172134595893</v>
+        <v>14.47172134595892</v>
       </c>
       <c r="D17">
-        <v>3.328458788967767</v>
+        <v>3.3284587889679</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.34296289464288</v>
+        <v>32.34296289464286</v>
       </c>
       <c r="G17">
-        <v>24.38109013770981</v>
+        <v>24.38109013770982</v>
       </c>
       <c r="H17">
-        <v>20.30668068805885</v>
+        <v>20.30668068805889</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>19.01399008925282</v>
+        <v>19.01399008925273</v>
       </c>
       <c r="K17">
         <v>15.4880701067812</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.42950195480107</v>
+        <v>21.42950195480104</v>
       </c>
       <c r="C18">
         <v>14.29630659901401</v>
       </c>
       <c r="D18">
-        <v>3.3477380328774</v>
+        <v>3.347738032877404</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.00514809596331</v>
+        <v>32.00514809596334</v>
       </c>
       <c r="G18">
-        <v>24.16023493991005</v>
+        <v>24.16023493991008</v>
       </c>
       <c r="H18">
-        <v>20.17774084144224</v>
+        <v>20.1777408414423</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.78137097212699</v>
+        <v>18.78137097212695</v>
       </c>
       <c r="K18">
-        <v>15.26875385468622</v>
+        <v>15.26875385468624</v>
       </c>
       <c r="L18">
         <v>19.30274993076186</v>
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.33471993968936</v>
+        <v>21.33471993968924</v>
       </c>
       <c r="C19">
-        <v>14.23654778777502</v>
+        <v>14.23654778777495</v>
       </c>
       <c r="D19">
-        <v>3.354250101977042</v>
+        <v>3.354250101977179</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.89074147054485</v>
+        <v>31.89074147054481</v>
       </c>
       <c r="G19">
         <v>24.08560763181098</v>
       </c>
       <c r="H19">
-        <v>20.13440989939329</v>
+        <v>20.13440989939334</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.70210874169858</v>
+        <v>18.70210874169849</v>
       </c>
       <c r="K19">
         <v>15.19412111950454</v>
       </c>
       <c r="L19">
-        <v>19.21474346221871</v>
+        <v>19.21474346221865</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.758762126691</v>
+        <v>21.7587621266909</v>
       </c>
       <c r="C20">
-        <v>14.50401325745993</v>
+        <v>14.50401325745995</v>
       </c>
       <c r="D20">
-        <v>3.324882963783751</v>
+        <v>3.324882963783816</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.40547110145798</v>
+        <v>32.40547110145803</v>
       </c>
       <c r="G20">
-        <v>24.42203691795577</v>
+        <v>24.42203691795583</v>
       </c>
       <c r="H20">
-        <v>20.33070009911993</v>
+        <v>20.33070009912003</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>19.05680531444349</v>
+        <v>19.05680531444345</v>
       </c>
       <c r="K20">
-        <v>15.52848341568309</v>
+        <v>15.52848341568317</v>
       </c>
       <c r="L20">
-        <v>19.60874191854342</v>
+        <v>19.60874191854343</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.14062912853018</v>
+        <v>23.14062912853007</v>
       </c>
       <c r="C21">
-        <v>15.37756515130893</v>
+        <v>15.37756515130902</v>
       </c>
       <c r="D21">
-        <v>3.224953940383388</v>
+        <v>3.22495394038332</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.21417184608421</v>
+        <v>20.21417184608415</v>
       </c>
       <c r="K21">
-        <v>16.62661945319458</v>
+        <v>16.6266194531946</v>
       </c>
       <c r="L21">
-        <v>20.89764200228959</v>
+        <v>20.89764200228956</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.01268107945689</v>
+        <v>24.01268107945705</v>
       </c>
       <c r="C22">
-        <v>15.93028365983207</v>
+        <v>15.93028365983206</v>
       </c>
       <c r="D22">
         <v>3.158481932087797</v>
@@ -1184,25 +1184,25 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.26048143157609</v>
+        <v>35.26048143157605</v>
       </c>
       <c r="G22">
-        <v>26.31656628206331</v>
+        <v>26.31656628206327</v>
       </c>
       <c r="H22">
-        <v>21.47737443625786</v>
+        <v>21.4773744362578</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.9456212861833</v>
+        <v>20.94562128618341</v>
       </c>
       <c r="K22">
-        <v>17.3265905515571</v>
+        <v>17.32659055155705</v>
       </c>
       <c r="L22">
-        <v>21.71508310550465</v>
+        <v>21.7150831055047</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.55003592596903</v>
+        <v>23.55003592596913</v>
       </c>
       <c r="C23">
         <v>15.63691756724541</v>
       </c>
       <c r="D23">
-        <v>3.19408092105282</v>
+        <v>3.194080921052687</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.65874995286093</v>
+        <v>34.65874995286089</v>
       </c>
       <c r="G23">
-        <v>25.91356716309411</v>
+        <v>25.91356716309406</v>
       </c>
       <c r="H23">
-        <v>21.22803993221454</v>
+        <v>21.22803993221446</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.55747140059851</v>
+        <v>20.55747140059858</v>
       </c>
       <c r="K23">
-        <v>16.95454865121072</v>
+        <v>16.95454865121074</v>
       </c>
       <c r="L23">
-        <v>21.2810080657328</v>
+        <v>21.28100806573281</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,34 +1251,34 @@
         <v>21.73563907571425</v>
       </c>
       <c r="C24">
-        <v>14.48942093221943</v>
+        <v>14.48942093221954</v>
       </c>
       <c r="D24">
-        <v>3.326499867837401</v>
+        <v>3.326499867837404</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.3772121469904</v>
+        <v>32.37721214699029</v>
       </c>
       <c r="G24">
-        <v>24.40352246336018</v>
+        <v>24.4035224633601</v>
       </c>
       <c r="H24">
-        <v>20.3198351480989</v>
+        <v>20.3198351480988</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>19.03745791399668</v>
+        <v>19.03745791399673</v>
       </c>
       <c r="K24">
-        <v>15.51021959094935</v>
+        <v>15.51021959094936</v>
       </c>
       <c r="L24">
-        <v>19.58723919931363</v>
+        <v>19.58723919931364</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.63967783599113</v>
+        <v>19.63967783599103</v>
       </c>
       <c r="C25">
-        <v>13.17042659992452</v>
+        <v>13.17042659992456</v>
       </c>
       <c r="D25">
-        <v>3.465736477396195</v>
+        <v>3.465736477396191</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.91030999308645</v>
+        <v>29.91030999308657</v>
       </c>
       <c r="G25">
-        <v>22.80847646020981</v>
+        <v>22.80847646020992</v>
       </c>
       <c r="H25">
-        <v>19.41310419612038</v>
+        <v>19.41310419612049</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.28668111938832</v>
+        <v>17.28668111938829</v>
       </c>
       <c r="K25">
         <v>13.96914139153026</v>
       </c>
       <c r="L25">
-        <v>17.64654134069654</v>
+        <v>17.64654134069653</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.97143417407498</v>
+        <v>17.97140660691703</v>
       </c>
       <c r="C2">
-        <v>12.12645069222269</v>
+        <v>12.12347357982964</v>
       </c>
       <c r="D2">
-        <v>3.566522069703865</v>
+        <v>3.566410675665658</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.09187779453024</v>
+        <v>28.07337653047026</v>
       </c>
       <c r="G2">
-        <v>21.66405078869314</v>
+        <v>20.18024027467391</v>
       </c>
       <c r="H2">
-        <v>18.80438347481804</v>
+        <v>21.69881679864926</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18.79176473497818</v>
       </c>
       <c r="J2">
-        <v>15.89802296405697</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.93904066273577</v>
+        <v>15.896997730295</v>
       </c>
       <c r="L2">
-        <v>16.11311456940738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.93892275784219</v>
+      </c>
+      <c r="M2">
+        <v>16.1130662490038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.76040986847918</v>
+        <v>16.76050612030717</v>
       </c>
       <c r="C3">
-        <v>11.37244434516125</v>
+        <v>11.36986602347492</v>
       </c>
       <c r="D3">
-        <v>3.63432978258819</v>
+        <v>3.634032814409909</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.86187719343381</v>
+        <v>26.84453813765663</v>
       </c>
       <c r="G3">
-        <v>20.90869730802209</v>
+        <v>19.18436933329806</v>
       </c>
       <c r="H3">
-        <v>18.42680825912441</v>
+        <v>20.94241999355737</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>18.41513492974667</v>
       </c>
       <c r="J3">
-        <v>14.89328661970032</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.2246088294548</v>
+        <v>14.89248318018555</v>
       </c>
       <c r="L3">
-        <v>15.00578755941567</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.22452972679381</v>
+      </c>
+      <c r="M3">
+        <v>15.00579748239154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.97643009213672</v>
+        <v>15.97660206651331</v>
       </c>
       <c r="C4">
-        <v>10.88631816246168</v>
+        <v>10.8839985094859</v>
       </c>
       <c r="D4">
-        <v>3.675890886564833</v>
+        <v>3.67547937814552</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.10963028441542</v>
+        <v>26.09303127425747</v>
       </c>
       <c r="G4">
-        <v>20.45562496152515</v>
+        <v>18.57152262186218</v>
       </c>
       <c r="H4">
-        <v>18.21160720310418</v>
+        <v>20.48874853164035</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>18.20052782905567</v>
       </c>
       <c r="J4">
-        <v>14.24462942143973</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>11.77864924774561</v>
+        <v>14.2439678164273</v>
       </c>
       <c r="L4">
-        <v>14.29143444328819</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.77859598561294</v>
+      </c>
+      <c r="M4">
+        <v>14.29147837192095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.64669411167761</v>
+        <v>15.64689701682468</v>
       </c>
       <c r="C5">
-        <v>10.68237565955165</v>
+        <v>10.68016515222336</v>
       </c>
       <c r="D5">
-        <v>3.692832229081272</v>
+        <v>3.692373813550957</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.80416524142389</v>
+        <v>25.78787431932151</v>
       </c>
       <c r="G5">
-        <v>20.27381910724673</v>
+        <v>18.32170708367693</v>
       </c>
       <c r="H5">
-        <v>18.12799707773329</v>
+        <v>20.30670919625162</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.1171627047443</v>
       </c>
       <c r="J5">
-        <v>13.97227921750201</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11.59524529045912</v>
+        <v>13.97167703469013</v>
       </c>
       <c r="L5">
-        <v>13.99155297955233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.59520314385655</v>
+      </c>
+      <c r="M5">
+        <v>13.99161041285547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.59131946743095</v>
+        <v>15.59152751747207</v>
       </c>
       <c r="C6">
-        <v>10.64815809870896</v>
+        <v>10.645965948678</v>
       </c>
       <c r="D6">
-        <v>3.695646266135538</v>
+        <v>3.695180045570961</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.75351895858028</v>
+        <v>25.7372795816621</v>
       </c>
       <c r="G6">
-        <v>20.24380494429899</v>
+        <v>18.28022972130075</v>
       </c>
       <c r="H6">
-        <v>18.11435747440892</v>
+        <v>20.27665691391697</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.10356394941851</v>
       </c>
       <c r="J6">
-        <v>13.92657078387919</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>11.56469585836686</v>
+        <v>13.92597857229381</v>
       </c>
       <c r="L6">
-        <v>13.94122465774327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.56465559502995</v>
+      </c>
+      <c r="M6">
+        <v>13.94128431467789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.97202481410681</v>
+        <v>15.97219720513019</v>
       </c>
       <c r="C7">
-        <v>10.88359138932432</v>
+        <v>10.88127319283445</v>
       </c>
       <c r="D7">
-        <v>3.676119314308413</v>
+        <v>3.675707174318834</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.10550582226875</v>
+        <v>26.08891094097713</v>
       </c>
       <c r="G7">
-        <v>20.45316144882165</v>
+        <v>18.56815343346462</v>
       </c>
       <c r="H7">
-        <v>18.21046319716663</v>
+        <v>20.48628182667837</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.19938711588945</v>
       </c>
       <c r="J7">
-        <v>14.24098890582951</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>11.77618231909572</v>
+        <v>14.24032809535568</v>
       </c>
       <c r="L7">
-        <v>14.28742581743279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.77612920440137</v>
+      </c>
+      <c r="M7">
+        <v>14.28746992950936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.56219788408113</v>
+        <v>17.56221316176153</v>
       </c>
       <c r="C8">
-        <v>11.87126154795479</v>
+        <v>11.86841922530831</v>
       </c>
       <c r="D8">
-        <v>3.589931896939316</v>
+        <v>3.589756589061768</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.66733956219349</v>
+        <v>27.64923348895136</v>
       </c>
       <c r="G8">
-        <v>21.40145471345018</v>
+        <v>19.83729656958482</v>
       </c>
       <c r="H8">
-        <v>18.67068833475244</v>
+        <v>21.43585252260071</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>18.65839252965266</v>
       </c>
       <c r="J8">
-        <v>15.55815243650895</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>12.6943024534383</v>
+        <v>15.5572026226617</v>
       </c>
       <c r="L8">
-        <v>15.73838631911387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.69419755798837</v>
+      </c>
+      <c r="M8">
+        <v>15.73835850050431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.36477175436976</v>
+        <v>20.36446984421297</v>
       </c>
       <c r="C9">
-        <v>13.62586938357376</v>
+        <v>13.62209786206564</v>
       </c>
       <c r="D9">
-        <v>3.419188053716961</v>
+        <v>3.41947666083773</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.74194736159437</v>
+        <v>30.72108833068231</v>
       </c>
       <c r="G9">
-        <v>23.34124584790371</v>
+        <v>22.30606267586423</v>
       </c>
       <c r="H9">
-        <v>19.70914899757445</v>
+        <v>23.37846651947843</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>19.69458506344517</v>
       </c>
       <c r="J9">
-        <v>17.89166518366786</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>14.43374891246193</v>
+        <v>17.89018488208677</v>
       </c>
       <c r="L9">
-        <v>18.31608266473062</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>14.43364839006533</v>
+      </c>
+      <c r="M9">
+        <v>18.31589552847891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.23875230876158</v>
+        <v>22.23820219688453</v>
       </c>
       <c r="C10">
-        <v>14.80711116972738</v>
+        <v>14.80270262375695</v>
       </c>
       <c r="D10">
-        <v>3.290911875007591</v>
+        <v>3.291547952003816</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.99695464388834</v>
+        <v>32.97419493052075</v>
       </c>
       <c r="G10">
-        <v>24.81070107180565</v>
+        <v>24.09977134163535</v>
       </c>
       <c r="H10">
-        <v>20.56040976215021</v>
+        <v>24.85017394874708</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.54427344775763</v>
       </c>
       <c r="J10">
-        <v>19.45856596663745</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>15.90842364481412</v>
+        <v>19.45670633996634</v>
       </c>
       <c r="L10">
-        <v>20.05557132272825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>15.90828716971008</v>
+      </c>
+      <c r="M10">
+        <v>20.0552492500061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.0529160621677</v>
+        <v>23.05224741829862</v>
       </c>
       <c r="C11">
-        <v>15.32203199401317</v>
+        <v>15.31734044269777</v>
       </c>
       <c r="D11">
-        <v>3.231492101256704</v>
+        <v>3.232289606524143</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.0210180373905</v>
+        <v>33.99741679786145</v>
       </c>
       <c r="G11">
-        <v>25.4885173210521</v>
+        <v>24.91098090992445</v>
       </c>
       <c r="H11">
-        <v>20.96809104992364</v>
+        <v>25.52905046553364</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>20.95126229729732</v>
       </c>
       <c r="J11">
-        <v>20.14064504064207</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>16.55651903094881</v>
+        <v>20.13861248566243</v>
       </c>
       <c r="L11">
-        <v>20.81559919681646</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>16.55636284263125</v>
+      </c>
+      <c r="M11">
+        <v>20.81521007428853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.35587532272734</v>
+        <v>23.35516076548029</v>
       </c>
       <c r="C12">
-        <v>15.51388989621161</v>
+        <v>15.50909188125045</v>
       </c>
       <c r="D12">
-        <v>3.208795649187639</v>
+        <v>3.209654962137798</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.40856868790712</v>
+        <v>34.38465170685318</v>
       </c>
       <c r="G12">
-        <v>25.74656217636374</v>
+        <v>25.21752472155615</v>
       </c>
       <c r="H12">
-        <v>21.1255247385054</v>
+        <v>25.78750174038599</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>21.10843714925625</v>
       </c>
       <c r="J12">
-        <v>20.39464006441111</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>16.7988779742354</v>
+        <v>20.39254173592495</v>
       </c>
       <c r="L12">
-        <v>21.09910942372574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>16.79871370707378</v>
+      </c>
+      <c r="M12">
+        <v>21.09869391869571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.29086265596699</v>
+        <v>23.2901580364938</v>
       </c>
       <c r="C13">
-        <v>15.47270748023127</v>
+        <v>15.46793236731322</v>
       </c>
       <c r="D13">
-        <v>3.213693154117037</v>
+        <v>3.214539122024995</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.32511237498405</v>
+        <v>34.30126327174855</v>
       </c>
       <c r="G13">
-        <v>25.69092572076396</v>
+        <v>25.1515323321174</v>
       </c>
       <c r="H13">
-        <v>21.09148073611509</v>
+        <v>25.73177753931455</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>21.07444874150372</v>
       </c>
       <c r="J13">
-        <v>20.34012650901771</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>16.74681416041791</v>
+        <v>20.33804236289906</v>
       </c>
       <c r="L13">
-        <v>21.03823804022298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>16.74665166282628</v>
+      </c>
+      <c r="M13">
+        <v>21.03782826440579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.07794686958589</v>
+        <v>23.07727447035083</v>
       </c>
       <c r="C14">
-        <v>15.3378784264824</v>
+        <v>15.33317810384106</v>
       </c>
       <c r="D14">
-        <v>3.229629027058264</v>
+        <v>3.23043160244437</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.05290652735169</v>
+        <v>34.02927925555635</v>
       </c>
       <c r="G14">
-        <v>25.5097190407973</v>
+        <v>24.93621289600254</v>
       </c>
       <c r="H14">
-        <v>20.98098129109037</v>
+        <v>25.55028552417156</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>20.96413117602379</v>
       </c>
       <c r="J14">
-        <v>20.16162664858633</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>16.57651809912459</v>
+        <v>20.15958868960999</v>
       </c>
       <c r="L14">
-        <v>20.83900861730812</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>16.57636125929421</v>
+      </c>
+      <c r="M14">
+        <v>20.83861734528151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.94683860108014</v>
+        <v>22.94618579683373</v>
       </c>
       <c r="C15">
-        <v>15.25488697545179</v>
+        <v>15.25023254738547</v>
       </c>
       <c r="D15">
-        <v>3.239363418352287</v>
+        <v>3.240139509282665</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.88614301287775</v>
+        <v>33.86265198686476</v>
       </c>
       <c r="G15">
-        <v>25.39890478042052</v>
+        <v>24.80424198453498</v>
       </c>
       <c r="H15">
-        <v>20.91369858302675</v>
+        <v>25.4392971226244</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>20.89696031489627</v>
       </c>
       <c r="J15">
-        <v>20.05173512161899</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>16.4718148919611</v>
+        <v>20.0497254085452</v>
       </c>
       <c r="L15">
-        <v>20.71642174673579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>16.47166143343605</v>
+      </c>
+      <c r="M15">
+        <v>20.71604167384118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.18478732147327</v>
+        <v>22.18424482464677</v>
       </c>
       <c r="C16">
-        <v>14.77301622591186</v>
+        <v>14.76862628871304</v>
       </c>
       <c r="D16">
-        <v>3.294770147714175</v>
+        <v>3.295395758525808</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.92999372014222</v>
+        <v>32.90728943577596</v>
       </c>
       <c r="G16">
-        <v>24.76659350904012</v>
+        <v>24.04666317843959</v>
       </c>
       <c r="H16">
-        <v>20.53418749779311</v>
+        <v>24.80599779434248</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.51809690544929</v>
       </c>
       <c r="J16">
-        <v>19.41338260935547</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>15.86562882050075</v>
+        <v>19.4115342568001</v>
       </c>
       <c r="L16">
-        <v>20.00528912297401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>15.86549355545195</v>
+      </c>
+      <c r="M16">
+        <v>20.00497130357198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.70759044448379</v>
+        <v>21.7071140295377</v>
       </c>
       <c r="C17">
-        <v>14.47172134595892</v>
+        <v>14.46749521473351</v>
       </c>
       <c r="D17">
-        <v>3.3284587889679</v>
+        <v>3.328993074356556</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.34296289464286</v>
+        <v>32.32074691724964</v>
       </c>
       <c r="G17">
-        <v>24.38109013770982</v>
+        <v>23.58070352855255</v>
       </c>
       <c r="H17">
-        <v>20.30668068805889</v>
+        <v>24.41989726489647</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.29099336926063</v>
       </c>
       <c r="J17">
-        <v>19.01399008925273</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>15.4880701067812</v>
+        <v>19.01224046962857</v>
       </c>
       <c r="L17">
-        <v>19.56115885206581</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>15.4879450565697</v>
+      </c>
+      <c r="M17">
+        <v>19.56087765434052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.42950195480104</v>
+        <v>21.42906303359168</v>
       </c>
       <c r="C18">
-        <v>14.29630659901401</v>
+        <v>14.29217533986292</v>
       </c>
       <c r="D18">
-        <v>3.347738032877404</v>
+        <v>3.348220093278752</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.00514809596334</v>
+        <v>31.9832151840908</v>
       </c>
       <c r="G18">
-        <v>24.16023493991008</v>
+        <v>23.31224174434638</v>
       </c>
       <c r="H18">
-        <v>20.1777408414423</v>
+        <v>24.19870197125187</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>20.16228762564811</v>
       </c>
       <c r="J18">
-        <v>18.78137097212695</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>15.26875385468624</v>
+        <v>18.77967812128318</v>
       </c>
       <c r="L18">
-        <v>19.30274993076186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>15.26863437273968</v>
+      </c>
+      <c r="M18">
+        <v>19.3024892756311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.33471993968924</v>
+        <v>21.33429363104674</v>
       </c>
       <c r="C19">
-        <v>14.23654778777495</v>
+        <v>14.23244877117447</v>
       </c>
       <c r="D19">
-        <v>3.354250101977179</v>
+        <v>3.354714526546471</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.89074147054481</v>
+        <v>31.86890478885104</v>
       </c>
       <c r="G19">
-        <v>24.08560763181098</v>
+        <v>23.22126699541486</v>
       </c>
       <c r="H19">
-        <v>20.13440989939334</v>
+        <v>24.12396009931868</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>20.11903631193363</v>
       </c>
       <c r="J19">
-        <v>18.70210874169849</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>15.19412111950454</v>
+        <v>18.70043511523904</v>
       </c>
       <c r="L19">
-        <v>19.21474346221865</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>15.19400347376734</v>
+      </c>
+      <c r="M19">
+        <v>19.21448967788762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.7587621266909</v>
+        <v>21.75827873199933</v>
       </c>
       <c r="C20">
-        <v>14.50401325745995</v>
+        <v>14.49976962290073</v>
       </c>
       <c r="D20">
-        <v>3.324882963783816</v>
+        <v>3.325426938260217</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.40547110145803</v>
+        <v>32.38320291737845</v>
       </c>
       <c r="G20">
-        <v>24.42203691795583</v>
+        <v>23.63035263506922</v>
       </c>
       <c r="H20">
-        <v>20.33070009912003</v>
+        <v>24.4609072661904</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>20.31496962761386</v>
       </c>
       <c r="J20">
-        <v>19.05680531444345</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>15.52848341568317</v>
+        <v>19.05504518821921</v>
       </c>
       <c r="L20">
-        <v>19.60874191854343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>15.52835731073785</v>
+      </c>
+      <c r="M20">
+        <v>19.60845687751751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.14062912853007</v>
+        <v>23.13994729521174</v>
       </c>
       <c r="C21">
-        <v>15.37756515130902</v>
+        <v>15.37284284408757</v>
       </c>
       <c r="D21">
-        <v>3.22495394038332</v>
+        <v>3.225769241067272</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.13286601547076</v>
+        <v>34.10917351064079</v>
       </c>
       <c r="G21">
-        <v>25.56290619596761</v>
+        <v>24.99947426500711</v>
       </c>
       <c r="H21">
-        <v>21.01335377466958</v>
+        <v>25.60355635722343</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>20.99645014536018</v>
       </c>
       <c r="J21">
-        <v>20.21417184608415</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>16.6266194531946</v>
+        <v>20.21212033066772</v>
       </c>
       <c r="L21">
-        <v>20.89764200228956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>16.62646096936584</v>
+      </c>
+      <c r="M21">
+        <v>20.89724532373836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.01268107945705</v>
+        <v>24.01186344060441</v>
       </c>
       <c r="C22">
-        <v>15.93028365983206</v>
+        <v>15.92525247683904</v>
       </c>
       <c r="D22">
-        <v>3.158481932087797</v>
+        <v>3.159478631250502</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.26048143157605</v>
+        <v>35.23587485015891</v>
       </c>
       <c r="G22">
-        <v>26.31656628206327</v>
+        <v>25.89058702910898</v>
       </c>
       <c r="H22">
-        <v>21.4773744362578</v>
+        <v>26.3584082571125</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>21.45972372022788</v>
       </c>
       <c r="J22">
-        <v>20.94562128618341</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>17.32659055155705</v>
+        <v>20.94337751774007</v>
       </c>
       <c r="L22">
-        <v>21.7150831055047</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>17.32640724888108</v>
+      </c>
+      <c r="M22">
+        <v>21.7146075773654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.55003592596913</v>
+        <v>23.5492914085779</v>
       </c>
       <c r="C23">
-        <v>15.63691756724541</v>
+        <v>15.63205096910191</v>
       </c>
       <c r="D23">
-        <v>3.194080921052687</v>
+        <v>3.194980357924182</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.65874995286089</v>
+        <v>34.6346298514035</v>
       </c>
       <c r="G23">
-        <v>25.91356716309406</v>
+        <v>25.41529083096666</v>
       </c>
       <c r="H23">
-        <v>21.22803993221446</v>
+        <v>25.9547704884369</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>21.21078614989908</v>
       </c>
       <c r="J23">
-        <v>20.55747140059858</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>16.95454865121074</v>
+        <v>20.55533049126805</v>
       </c>
       <c r="L23">
-        <v>21.28100806573281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>16.95437897929088</v>
+      </c>
+      <c r="M23">
+        <v>21.28057522644013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.73563907571425</v>
+        <v>21.7351588380993</v>
       </c>
       <c r="C24">
-        <v>14.48942093221954</v>
+        <v>14.48518520872379</v>
       </c>
       <c r="D24">
-        <v>3.326499867837404</v>
+        <v>3.32703946102187</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.37721214699029</v>
+        <v>32.35496755826308</v>
       </c>
       <c r="G24">
-        <v>24.4035224633601</v>
+        <v>23.60790806843022</v>
       </c>
       <c r="H24">
-        <v>20.3198351480988</v>
+        <v>24.44236421931886</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>20.30412417891393</v>
       </c>
       <c r="J24">
-        <v>19.03745791399673</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>15.51021959094936</v>
+        <v>19.03570253777045</v>
       </c>
       <c r="L24">
-        <v>19.58723919931364</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15.51009396378779</v>
+      </c>
+      <c r="M24">
+        <v>19.58695589742476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.63967783599103</v>
+        <v>19.63946366522738</v>
       </c>
       <c r="C25">
-        <v>13.17042659992456</v>
+        <v>13.16689739866973</v>
       </c>
       <c r="D25">
-        <v>3.465736477396191</v>
+        <v>3.465898986955328</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.91030999308657</v>
+        <v>29.89017348225803</v>
       </c>
       <c r="G25">
-        <v>22.80847646020992</v>
+        <v>21.64137464198813</v>
       </c>
       <c r="H25">
-        <v>19.41310419612049</v>
+        <v>22.84490106227106</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>19.39913844383447</v>
       </c>
       <c r="J25">
-        <v>17.28668111938829</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>13.96914139153026</v>
+        <v>17.28534164481009</v>
       </c>
       <c r="L25">
-        <v>17.64654134069653</v>
+        <v>13.96897057535478</v>
+      </c>
+      <c r="M25">
+        <v>17.64639990663537</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.97140660691703</v>
+        <v>19.48407445761996</v>
       </c>
       <c r="C2">
-        <v>12.12347357982964</v>
+        <v>12.8100888277465</v>
       </c>
       <c r="D2">
-        <v>3.566410675665658</v>
+        <v>4.618964780143555</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>28.07337653047026</v>
+        <v>33.45329160043809</v>
       </c>
       <c r="G2">
-        <v>20.18024027467391</v>
+        <v>2.094648908197262</v>
       </c>
       <c r="H2">
-        <v>21.69881679864926</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>18.79176473497818</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.441026442590624</v>
       </c>
       <c r="K2">
-        <v>15.896997730295</v>
+        <v>16.82156686747658</v>
       </c>
       <c r="L2">
-        <v>12.93892275784219</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.1130662490038</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>15.22052672787305</v>
+      </c>
+      <c r="N2">
+        <v>13.22654299237276</v>
+      </c>
+      <c r="O2">
+        <v>23.96170078409813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.76050612030717</v>
+        <v>18.11073874986054</v>
       </c>
       <c r="C3">
-        <v>11.36986602347492</v>
+        <v>11.90693818703313</v>
       </c>
       <c r="D3">
-        <v>3.634032814409909</v>
+        <v>4.501778023349451</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.84453813765663</v>
+        <v>32.41889239101474</v>
       </c>
       <c r="G3">
-        <v>19.18436933329806</v>
+        <v>2.103562911837854</v>
       </c>
       <c r="H3">
-        <v>20.94241999355737</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>18.41513492974667</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.42618664939645</v>
       </c>
       <c r="K3">
-        <v>14.89248318018555</v>
+        <v>15.6399132161489</v>
       </c>
       <c r="L3">
-        <v>12.22452972679381</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.00579748239154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>14.50866788515121</v>
+      </c>
+      <c r="N3">
+        <v>13.47212818967254</v>
+      </c>
+      <c r="O3">
+        <v>23.34489814419861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.97660206651331</v>
+        <v>17.27572285957226</v>
       </c>
       <c r="C4">
-        <v>10.8839985094859</v>
+        <v>11.3228114296299</v>
       </c>
       <c r="D4">
-        <v>3.67547937814552</v>
+        <v>4.429947173344814</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.09303127425747</v>
+        <v>31.800944354982</v>
       </c>
       <c r="G4">
-        <v>18.57152262186218</v>
+        <v>2.109175866583378</v>
       </c>
       <c r="H4">
-        <v>20.48874853164035</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>18.20052782905567</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.420395087097512</v>
       </c>
       <c r="K4">
-        <v>14.2439678164273</v>
+        <v>14.87544849888177</v>
       </c>
       <c r="L4">
-        <v>11.77859598561294</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.29147837192095</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>14.06397674430606</v>
+      </c>
+      <c r="N4">
+        <v>13.62626411197019</v>
+      </c>
+      <c r="O4">
+        <v>22.98261596428139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.64689701682468</v>
+        <v>16.93920734967148</v>
       </c>
       <c r="C5">
-        <v>10.68016515222336</v>
+        <v>11.0772441412407</v>
       </c>
       <c r="D5">
-        <v>3.692373813550957</v>
+        <v>4.40073960757171</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.78787431932151</v>
+        <v>31.55360476860049</v>
       </c>
       <c r="G5">
-        <v>18.32170708367693</v>
+        <v>2.111500047249056</v>
       </c>
       <c r="H5">
-        <v>20.30670919625162</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>18.1171627047443</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.418843851642126</v>
       </c>
       <c r="K5">
-        <v>13.97167703469013</v>
+        <v>14.55402016521744</v>
       </c>
       <c r="L5">
-        <v>11.59520314385655</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.99161041285547</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>13.881072123702</v>
+      </c>
+      <c r="N5">
+        <v>13.68993801628474</v>
+      </c>
+      <c r="O5">
+        <v>22.83913035242314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.59152751747207</v>
+        <v>16.88283537331847</v>
       </c>
       <c r="C6">
-        <v>10.645965948678</v>
+        <v>11.03601046830616</v>
       </c>
       <c r="D6">
-        <v>3.695180045570961</v>
+        <v>4.395894592958753</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.7372795816621</v>
+        <v>31.51280951158611</v>
       </c>
       <c r="G6">
-        <v>18.28022972130075</v>
+        <v>2.111888249925387</v>
       </c>
       <c r="H6">
-        <v>20.27665691391697</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>18.10356394941851</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.418634374576795</v>
       </c>
       <c r="K6">
-        <v>13.92597857229381</v>
+        <v>14.50004587239747</v>
       </c>
       <c r="L6">
-        <v>11.56465559502995</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.94128431467789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13.85060618147982</v>
+      </c>
+      <c r="N6">
+        <v>13.70056371498111</v>
+      </c>
+      <c r="O6">
+        <v>22.81555545310948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.97219720513019</v>
+        <v>17.27121770982957</v>
       </c>
       <c r="C7">
-        <v>10.88127319283445</v>
+        <v>11.31953023239196</v>
       </c>
       <c r="D7">
-        <v>3.675707174318834</v>
+        <v>4.429552965037258</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.08891094097713</v>
+        <v>31.79759029545239</v>
       </c>
       <c r="G7">
-        <v>18.56815343346462</v>
+        <v>2.109207059871177</v>
       </c>
       <c r="H7">
-        <v>20.48628182667837</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>18.19938711588945</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.42037092542896</v>
       </c>
       <c r="K7">
-        <v>14.24032809535568</v>
+        <v>14.87115384829475</v>
       </c>
       <c r="L7">
-        <v>11.77612920440137</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.28746992950936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>14.06151654593941</v>
+      </c>
+      <c r="N7">
+        <v>13.62711932132643</v>
+      </c>
+      <c r="O7">
+        <v>22.98066406044325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.56221316176153</v>
+        <v>19.01965122755087</v>
       </c>
       <c r="C8">
-        <v>11.86841922530831</v>
+        <v>12.50476757199327</v>
       </c>
       <c r="D8">
-        <v>3.589756589061768</v>
+        <v>4.578552799208667</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.64923348895136</v>
+        <v>33.09315885715333</v>
       </c>
       <c r="G8">
-        <v>19.83729656958482</v>
+        <v>2.097694531502739</v>
       </c>
       <c r="H8">
-        <v>21.43585252260071</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>18.65839252965266</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.435204751307203</v>
       </c>
       <c r="K8">
-        <v>15.5572026226617</v>
+        <v>16.42214061631244</v>
       </c>
       <c r="L8">
-        <v>12.69419755798837</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.73835850050431</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>14.97677896293956</v>
+      </c>
+      <c r="N8">
+        <v>13.31053896942001</v>
+      </c>
+      <c r="O8">
+        <v>23.74562522330941</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.36446984421297</v>
+        <v>22.20662469554574</v>
       </c>
       <c r="C9">
-        <v>13.62209786206564</v>
+        <v>14.59858963447828</v>
       </c>
       <c r="D9">
-        <v>3.41947666083773</v>
+        <v>4.870361658984483</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.72108833068231</v>
+        <v>35.76381363444914</v>
       </c>
       <c r="G9">
-        <v>22.30606267586423</v>
+        <v>2.076142730317026</v>
       </c>
       <c r="H9">
-        <v>23.37846651947843</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>19.69458506344517</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.491841555378953</v>
       </c>
       <c r="K9">
-        <v>17.89018488208677</v>
+        <v>19.16025516622317</v>
       </c>
       <c r="L9">
-        <v>14.43364839006533</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>18.31589552847891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>16.70339640167396</v>
+      </c>
+      <c r="N9">
+        <v>12.71533906905959</v>
+      </c>
+      <c r="O9">
+        <v>25.37556120833323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.23820219688453</v>
+        <v>24.34557234518918</v>
       </c>
       <c r="C10">
-        <v>14.80270262375695</v>
+        <v>16.00293049372854</v>
       </c>
       <c r="D10">
-        <v>3.291547952003816</v>
+        <v>5.082917137887106</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.97419493052075</v>
+        <v>37.79887132216879</v>
       </c>
       <c r="G10">
-        <v>24.09977134163535</v>
+        <v>2.060804274519344</v>
       </c>
       <c r="H10">
-        <v>24.85017394874708</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>20.54427344775763</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.551975348106585</v>
       </c>
       <c r="K10">
-        <v>19.45670633996634</v>
+        <v>20.99514227848709</v>
       </c>
       <c r="L10">
-        <v>15.90828716971008</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>20.0552492500061</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17.94092049978303</v>
+      </c>
+      <c r="N10">
+        <v>12.29242802539102</v>
+      </c>
+      <c r="O10">
+        <v>26.6521336576571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.05224741829862</v>
+        <v>25.27670403485786</v>
       </c>
       <c r="C11">
-        <v>15.31734044269777</v>
+        <v>16.61427310164546</v>
       </c>
       <c r="D11">
-        <v>3.232289606524143</v>
+        <v>5.17894124828574</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>33.99741679786145</v>
+        <v>38.73991892536067</v>
       </c>
       <c r="G11">
-        <v>24.91098090992445</v>
+        <v>2.053902010087332</v>
       </c>
       <c r="H11">
-        <v>25.52905046553364</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>20.95126229729732</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.583753069481042</v>
       </c>
       <c r="K11">
-        <v>20.13861248566243</v>
+        <v>21.79344020483585</v>
       </c>
       <c r="L11">
-        <v>16.55636284263125</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>20.81521007428853</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18.6241609055498</v>
+      </c>
+      <c r="N11">
+        <v>12.102926787691</v>
+      </c>
+      <c r="O11">
+        <v>27.25034121446172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.35516076548029</v>
+        <v>25.62346592238532</v>
       </c>
       <c r="C12">
-        <v>15.50909188125045</v>
+        <v>16.84196040307626</v>
       </c>
       <c r="D12">
-        <v>3.209654962137798</v>
+        <v>5.21518890350049</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.38465170685318</v>
+        <v>39.09847997815696</v>
       </c>
       <c r="G12">
-        <v>25.21752472155615</v>
+        <v>2.051296146889159</v>
       </c>
       <c r="H12">
-        <v>25.78750174038599</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>21.10843714925625</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.596457626272306</v>
       </c>
       <c r="K12">
-        <v>20.39254173592495</v>
+        <v>22.09067640152593</v>
       </c>
       <c r="L12">
-        <v>16.79871370707378</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>21.09869391869571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>18.87857073317329</v>
+      </c>
+      <c r="N12">
+        <v>12.03156783561026</v>
+      </c>
+      <c r="O12">
+        <v>27.47943568126581</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.2901580364938</v>
+        <v>25.54904099875787</v>
       </c>
       <c r="C13">
-        <v>15.46793236731322</v>
+        <v>16.7930911758064</v>
       </c>
       <c r="D13">
-        <v>3.214539122024995</v>
+        <v>5.207387669901252</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.30126327174855</v>
+        <v>39.02115854575825</v>
       </c>
       <c r="G13">
-        <v>25.1515323321174</v>
+        <v>2.051857066353042</v>
       </c>
       <c r="H13">
-        <v>25.73177753931455</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>21.07444874150372</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.593691044961739</v>
       </c>
       <c r="K13">
-        <v>20.33804236289906</v>
+        <v>22.0268834843341</v>
       </c>
       <c r="L13">
-        <v>16.74665166282628</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>21.03782826440579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>18.82396861933908</v>
+      </c>
+      <c r="N13">
+        <v>12.04691859702722</v>
+      </c>
+      <c r="O13">
+        <v>27.42998078863487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.07727447035083</v>
+        <v>25.30534820134758</v>
       </c>
       <c r="C14">
-        <v>15.33317810384106</v>
+        <v>16.63308068358378</v>
       </c>
       <c r="D14">
-        <v>3.23043160244437</v>
+        <v>5.181925752728551</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.02927925555635</v>
+        <v>38.76937348037212</v>
       </c>
       <c r="G14">
-        <v>24.93621289600254</v>
+        <v>2.053687484376344</v>
       </c>
       <c r="H14">
-        <v>25.55028552417156</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>20.96413117602379</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.584784623450239</v>
       </c>
       <c r="K14">
-        <v>20.15958868960999</v>
+        <v>21.81799441039843</v>
       </c>
       <c r="L14">
-        <v>16.57636125929421</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>20.83861734528151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>18.64517701906682</v>
+      </c>
+      <c r="N14">
+        <v>12.09704806899629</v>
+      </c>
+      <c r="O14">
+        <v>27.26913711336908</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.94618579683373</v>
+        <v>25.15532496382006</v>
       </c>
       <c r="C15">
-        <v>15.25023254738547</v>
+        <v>16.5345771872643</v>
       </c>
       <c r="D15">
-        <v>3.240139509282665</v>
+        <v>5.166314190553386</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>33.86265198686476</v>
+        <v>38.61543646299585</v>
       </c>
       <c r="G15">
-        <v>24.80424198453498</v>
+        <v>2.054809600768027</v>
       </c>
       <c r="H15">
-        <v>25.4392971226244</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>20.89696031489627</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.579417650802821</v>
       </c>
       <c r="K15">
-        <v>20.0497254085452</v>
+        <v>21.68938999479481</v>
       </c>
       <c r="L15">
-        <v>16.47166143343605</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>20.71604167384118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>18.53510417348089</v>
+      </c>
+      <c r="N15">
+        <v>12.12780571427304</v>
+      </c>
+      <c r="O15">
+        <v>27.17095199108966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.18424482464677</v>
+        <v>24.28389327325982</v>
       </c>
       <c r="C16">
-        <v>14.76862628871304</v>
+        <v>15.96243609740016</v>
       </c>
       <c r="D16">
-        <v>3.295395758525808</v>
+        <v>5.076626615917881</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.90728943577596</v>
+        <v>37.73767872362933</v>
       </c>
       <c r="G16">
-        <v>24.04666317843959</v>
+        <v>2.061256623414577</v>
       </c>
       <c r="H16">
-        <v>24.80599779434248</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>20.51809690544929</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.549990538033371</v>
       </c>
       <c r="K16">
-        <v>19.4115342568001</v>
+        <v>20.94225355337051</v>
       </c>
       <c r="L16">
-        <v>15.86549355545195</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>20.00497130357198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>17.89565656030364</v>
+      </c>
+      <c r="N16">
+        <v>12.30486914778239</v>
+      </c>
+      <c r="O16">
+        <v>26.61339498814423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.7071140295377</v>
+        <v>23.73869614747876</v>
       </c>
       <c r="C17">
-        <v>14.46749521473351</v>
+        <v>15.60449819153258</v>
       </c>
       <c r="D17">
-        <v>3.328993074356556</v>
+        <v>5.021420596010557</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.32074691724964</v>
+        <v>37.20310705070682</v>
       </c>
       <c r="G17">
-        <v>23.58070352855255</v>
+        <v>2.065228940947844</v>
       </c>
       <c r="H17">
-        <v>24.41989726489647</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>20.29099336926063</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.533094926886163</v>
       </c>
       <c r="K17">
-        <v>19.01224046962857</v>
+        <v>20.47470441689357</v>
       </c>
       <c r="L17">
-        <v>15.4879450565697</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.56087765434052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.57246854516397</v>
+      </c>
+      <c r="N17">
+        <v>12.4142194614121</v>
+      </c>
+      <c r="O17">
+        <v>26.27585805387212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.42906303359168</v>
+        <v>23.42115839814944</v>
       </c>
       <c r="C18">
-        <v>14.29217533986292</v>
+        <v>15.39602437496397</v>
       </c>
       <c r="D18">
-        <v>3.348220093278752</v>
+        <v>4.989605500133271</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.9832151840908</v>
+        <v>36.89707097585747</v>
       </c>
       <c r="G18">
-        <v>23.31224174434638</v>
+        <v>2.06752099238895</v>
       </c>
       <c r="H18">
-        <v>24.19870197125187</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>20.16228762564811</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.52379106880512</v>
       </c>
       <c r="K18">
-        <v>18.77967812128318</v>
+        <v>20.20234507931935</v>
       </c>
       <c r="L18">
-        <v>15.26863437273968</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>19.3024892756311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17.39055375615325</v>
+      </c>
+      <c r="N18">
+        <v>12.47738685774756</v>
+      </c>
+      <c r="O18">
+        <v>26.08335706487943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.33429363104674</v>
+        <v>23.31296098997294</v>
       </c>
       <c r="C19">
-        <v>14.23244877117447</v>
+        <v>15.32498857171031</v>
       </c>
       <c r="D19">
-        <v>3.354714526546471</v>
+        <v>4.978823425206114</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.86890478885104</v>
+        <v>36.7936996178578</v>
       </c>
       <c r="G19">
-        <v>23.22126699541486</v>
+        <v>2.068298376729726</v>
       </c>
       <c r="H19">
-        <v>24.12396009931868</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>20.11903631193363</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.520711024041637</v>
       </c>
       <c r="K19">
-        <v>18.70043511523904</v>
+        <v>20.10953348668846</v>
       </c>
       <c r="L19">
-        <v>15.19400347376734</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>19.21448967788762</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.32877451190352</v>
+      </c>
+      <c r="N19">
+        <v>12.49882144075976</v>
+      </c>
+      <c r="O19">
+        <v>26.0184603686367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.75827873199933</v>
+        <v>23.7971413335455</v>
       </c>
       <c r="C20">
-        <v>14.49976962290073</v>
+        <v>15.64286914380621</v>
       </c>
       <c r="D20">
-        <v>3.325426938260217</v>
+        <v>5.02730393983543</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.38320291737845</v>
+        <v>37.2598646793213</v>
       </c>
       <c r="G20">
-        <v>23.63035263506922</v>
+        <v>2.064805347942653</v>
       </c>
       <c r="H20">
-        <v>24.4609072661904</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>20.31496962761386</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.534850394147059</v>
       </c>
       <c r="K20">
-        <v>19.05504518821921</v>
+        <v>20.52483038017639</v>
       </c>
       <c r="L20">
-        <v>15.52835731073785</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.60845687751751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>17.60604813510201</v>
+      </c>
+      <c r="N20">
+        <v>12.4025508944892</v>
+      </c>
+      <c r="O20">
+        <v>26.3116192921636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.13994729521174</v>
+        <v>25.37708353192879</v>
       </c>
       <c r="C21">
-        <v>15.37284284408757</v>
+        <v>16.6801820023744</v>
       </c>
       <c r="D21">
-        <v>3.225769241067272</v>
+        <v>5.189407772179588</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.10917351064079</v>
+        <v>38.84326861553711</v>
       </c>
       <c r="G21">
-        <v>24.99947426500711</v>
+        <v>2.053149657624797</v>
       </c>
       <c r="H21">
-        <v>25.60355635722343</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>20.99645014536018</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.587382152788977</v>
       </c>
       <c r="K21">
-        <v>20.21212033066772</v>
+        <v>21.87948612172654</v>
       </c>
       <c r="L21">
-        <v>16.62646096936584</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>20.89724532373836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>18.69780841696433</v>
+      </c>
+      <c r="N21">
+        <v>12.08231303098506</v>
+      </c>
+      <c r="O21">
+        <v>27.316310582598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.01186344060441</v>
+        <v>26.37574263083856</v>
       </c>
       <c r="C22">
-        <v>15.92525247683904</v>
+        <v>17.33596436214779</v>
       </c>
       <c r="D22">
-        <v>3.159478631250502</v>
+        <v>5.294678420278168</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.23587485015891</v>
+        <v>39.89102378694718</v>
       </c>
       <c r="G22">
-        <v>25.89058702910898</v>
+        <v>2.045576280479074</v>
       </c>
       <c r="H22">
-        <v>26.3584082571125</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>21.45972372022788</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.625643992422801</v>
       </c>
       <c r="K22">
-        <v>20.94337751774007</v>
+        <v>22.73541891061411</v>
       </c>
       <c r="L22">
-        <v>17.32640724888108</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>21.7146075773654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>19.4304412604507</v>
+      </c>
+      <c r="N22">
+        <v>11.87535366817752</v>
+      </c>
+      <c r="O22">
+        <v>27.98794075833659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.5492914085779</v>
+        <v>25.84577693064898</v>
       </c>
       <c r="C23">
-        <v>15.63205096910191</v>
+        <v>16.98793918847664</v>
       </c>
       <c r="D23">
-        <v>3.194980357924182</v>
+        <v>5.238560170441615</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>34.6346298514035</v>
+        <v>39.33061788305173</v>
       </c>
       <c r="G23">
-        <v>25.41529083096666</v>
+        <v>2.049615342487726</v>
       </c>
       <c r="H23">
-        <v>25.9547704884369</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>21.21078614989908</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.604851173531288</v>
       </c>
       <c r="K23">
-        <v>20.55533049126805</v>
+        <v>22.28122162244619</v>
       </c>
       <c r="L23">
-        <v>16.95437897929088</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>21.28057522644013</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>19.04166555201445</v>
+      </c>
+      <c r="N23">
+        <v>11.98560149635945</v>
+      </c>
+      <c r="O23">
+        <v>27.62808031494913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.7351588380993</v>
+        <v>23.77073103889848</v>
       </c>
       <c r="C24">
-        <v>14.48518520872379</v>
+        <v>15.62553002711033</v>
       </c>
       <c r="D24">
-        <v>3.32703946102187</v>
+        <v>5.024644316668709</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.35496755826308</v>
+        <v>37.23420051755927</v>
       </c>
       <c r="G24">
-        <v>23.60790806843022</v>
+        <v>2.064996828227903</v>
       </c>
       <c r="H24">
-        <v>24.44236421931886</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>20.30412417891393</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.534055474040345</v>
       </c>
       <c r="K24">
-        <v>19.03570253777045</v>
+        <v>20.50217953086314</v>
       </c>
       <c r="L24">
-        <v>15.51009396378779</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.58695589742476</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>17.59087045611555</v>
+      </c>
+      <c r="N24">
+        <v>12.40782531669799</v>
+      </c>
+      <c r="O24">
+        <v>26.29544680098925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.63946366522738</v>
+        <v>21.3806647249836</v>
       </c>
       <c r="C25">
-        <v>13.16689739866973</v>
+        <v>14.05618265227287</v>
       </c>
       <c r="D25">
-        <v>3.465898986955328</v>
+        <v>4.791637362509279</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.89017348225803</v>
+        <v>35.02817817874764</v>
       </c>
       <c r="G25">
-        <v>21.64137464198813</v>
+        <v>2.081875998596875</v>
       </c>
       <c r="H25">
-        <v>22.84490106227106</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>19.39913844383447</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.473396443865939</v>
       </c>
       <c r="K25">
-        <v>17.28534164481009</v>
+        <v>18.4511933110192</v>
       </c>
       <c r="L25">
-        <v>13.96897057535478</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.64639990663537</v>
+        <v>16.24454590730994</v>
+      </c>
+      <c r="N25">
+        <v>12.8737460917973</v>
+      </c>
+      <c r="O25">
+        <v>24.92076786534357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.48407445761996</v>
+        <v>21.00120684277378</v>
       </c>
       <c r="C2">
-        <v>12.8100888277465</v>
+        <v>11.02668125673932</v>
       </c>
       <c r="D2">
-        <v>4.618964780143555</v>
+        <v>4.213935564929938</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.45329160043809</v>
+        <v>17.02548954167135</v>
       </c>
       <c r="G2">
-        <v>2.094648908197262</v>
+        <v>21.313741220105</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.858147375784384</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.441026442590624</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>16.82156686747658</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.1068062654049</v>
       </c>
       <c r="M2">
-        <v>15.22052672787305</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.22654299237276</v>
+        <v>11.61015174376174</v>
       </c>
       <c r="O2">
-        <v>23.96170078409813</v>
+        <v>13.00788652370382</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.11073874986054</v>
+        <v>19.60184666361894</v>
       </c>
       <c r="C3">
-        <v>11.90693818703313</v>
+        <v>10.83629263631689</v>
       </c>
       <c r="D3">
-        <v>4.501778023349451</v>
+        <v>4.042455758590714</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.41889239101474</v>
+        <v>16.42611038299707</v>
       </c>
       <c r="G3">
-        <v>2.103562911837854</v>
+        <v>20.40302633544878</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.831819929741456</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.42618664939645</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>15.6399132161489</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.811207875704899</v>
       </c>
       <c r="M3">
-        <v>14.50866788515121</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.47212818967254</v>
+        <v>11.71264524250441</v>
       </c>
       <c r="O3">
-        <v>23.34489814419861</v>
+        <v>12.77451923807304</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.27572285957226</v>
+        <v>18.69106987325713</v>
       </c>
       <c r="C4">
-        <v>11.3228114296299</v>
+        <v>10.71865164257439</v>
       </c>
       <c r="D4">
-        <v>4.429947173344814</v>
+        <v>3.932878856058788</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.800944354982</v>
+        <v>16.06402669558188</v>
       </c>
       <c r="G4">
-        <v>2.109175866583378</v>
+        <v>19.84959217951051</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.82181509809842</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.420395087097512</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14.87544849888177</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.628803812421952</v>
       </c>
       <c r="M4">
-        <v>14.06397674430606</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.62626411197019</v>
+        <v>11.77929678779761</v>
       </c>
       <c r="O4">
-        <v>22.98261596428139</v>
+        <v>12.64251560505109</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.93920734967148</v>
+        <v>18.30689069773933</v>
       </c>
       <c r="C5">
-        <v>11.0772441412407</v>
+        <v>10.67057565734446</v>
       </c>
       <c r="D5">
-        <v>4.40073960757171</v>
+        <v>3.88718448488005</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.55360476860049</v>
+        <v>15.91818671056152</v>
       </c>
       <c r="G5">
-        <v>2.111500047249056</v>
+        <v>19.62587689704901</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.819239120058199</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.418843851642126</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>14.55402016521744</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.554354919263492</v>
       </c>
       <c r="M5">
-        <v>13.881072123702</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>13.68993801628474</v>
+        <v>11.80737615079414</v>
       </c>
       <c r="O5">
-        <v>22.83913035242314</v>
+        <v>12.59155050789056</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.88283537331847</v>
+        <v>18.24230920979532</v>
       </c>
       <c r="C6">
-        <v>11.03601046830616</v>
+        <v>10.66258593211008</v>
       </c>
       <c r="D6">
-        <v>4.395894592958753</v>
+        <v>3.87953529677315</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.51280951158611</v>
+        <v>15.89408002466069</v>
       </c>
       <c r="G6">
-        <v>2.111888249925387</v>
+        <v>19.58884991897722</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.818900606244116</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.418634374576795</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>14.50004587239747</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.541989011044723</v>
       </c>
       <c r="M6">
-        <v>13.85060618147982</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>13.70056371498111</v>
+        <v>11.81209369917849</v>
       </c>
       <c r="O6">
-        <v>22.81555545310948</v>
+        <v>12.58325804097176</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.27121770982957</v>
+        <v>18.68594154118158</v>
       </c>
       <c r="C7">
-        <v>11.31953023239196</v>
+        <v>10.71800375784448</v>
       </c>
       <c r="D7">
-        <v>4.429552965037258</v>
+        <v>3.932266767163216</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.79759029545239</v>
+        <v>16.06205261996831</v>
       </c>
       <c r="G7">
-        <v>2.109207059871177</v>
+        <v>19.84656722878583</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.821774344405173</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.42037092542896</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>14.87115384829475</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.627800093564908</v>
       </c>
       <c r="M7">
-        <v>14.06151654593941</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.62711932132643</v>
+        <v>11.77967177920427</v>
       </c>
       <c r="O7">
-        <v>22.98066406044325</v>
+        <v>12.64181684551052</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.01965122755087</v>
+        <v>20.52937029819357</v>
       </c>
       <c r="C8">
-        <v>12.50476757199327</v>
+        <v>10.96121887255783</v>
       </c>
       <c r="D8">
-        <v>4.578552799208667</v>
+        <v>4.155719938346629</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>33.09315885715333</v>
+        <v>16.81772005673886</v>
       </c>
       <c r="G8">
-        <v>2.097694531502739</v>
+        <v>20.99874604025255</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.847762770511062</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.435204751307203</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>16.42214061631244</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.005134944435838</v>
       </c>
       <c r="M8">
-        <v>14.97677896293956</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.31053896942001</v>
+        <v>11.64470861688654</v>
       </c>
       <c r="O8">
-        <v>23.74562522330941</v>
+        <v>12.92507655967574</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.20662469554574</v>
+        <v>23.73818947376732</v>
       </c>
       <c r="C9">
-        <v>14.59858963447828</v>
+        <v>11.43014860856647</v>
       </c>
       <c r="D9">
-        <v>4.870361658984483</v>
+        <v>4.558516040125242</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.76381363444914</v>
+        <v>18.33762820744489</v>
       </c>
       <c r="G9">
-        <v>2.076142730317026</v>
+        <v>23.28918161279945</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.949655670621492</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.491841555378953</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>19.16025516622317</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.733574991286225</v>
       </c>
       <c r="M9">
-        <v>16.70339640167396</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>12.71533906905959</v>
+        <v>11.41041159765732</v>
       </c>
       <c r="O9">
-        <v>25.37556120833323</v>
+        <v>13.57003511735082</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.34557234518918</v>
+        <v>25.85241018285753</v>
       </c>
       <c r="C10">
-        <v>16.00293049372854</v>
+        <v>11.76705820814067</v>
       </c>
       <c r="D10">
-        <v>5.082917137887106</v>
+        <v>4.831362402581264</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.79887132216879</v>
+        <v>19.46650307839737</v>
       </c>
       <c r="G10">
-        <v>2.060804274519344</v>
+        <v>24.97399895245613</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.058218998937946</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.551975348106585</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>20.99514227848709</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.256708783262699</v>
       </c>
       <c r="M10">
-        <v>17.94092049978303</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.29242802539102</v>
+        <v>11.25808245694887</v>
       </c>
       <c r="O10">
-        <v>26.6521336576571</v>
+        <v>14.09780766036191</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.27670403485786</v>
+        <v>26.76235743315774</v>
       </c>
       <c r="C11">
-        <v>16.61427310164546</v>
+        <v>11.91813717106329</v>
       </c>
       <c r="D11">
-        <v>5.17894124828574</v>
+        <v>4.950237153686813</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.73991892536067</v>
+        <v>19.98077068128578</v>
       </c>
       <c r="G11">
-        <v>2.053902010087332</v>
+        <v>25.73815624561958</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.11544709016286</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.583753069481042</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>21.79344020483585</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.491236233184624</v>
       </c>
       <c r="M11">
-        <v>18.6241609055498</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.102926787691</v>
+        <v>11.19341006058503</v>
       </c>
       <c r="O11">
-        <v>27.25034121446172</v>
+        <v>14.34935394793314</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.62346592238532</v>
+        <v>27.09955874832674</v>
       </c>
       <c r="C12">
-        <v>16.84196040307626</v>
+        <v>11.97499115994471</v>
       </c>
       <c r="D12">
-        <v>5.21518890350049</v>
+        <v>4.994482513164409</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>39.09847997815696</v>
+        <v>20.17548410694769</v>
       </c>
       <c r="G12">
-        <v>2.051296146889159</v>
+        <v>26.02702135590136</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.138284902537452</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.596457626272306</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>22.09067640152593</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.579493874308982</v>
       </c>
       <c r="M12">
-        <v>18.87857073317329</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.03156783561026</v>
+        <v>11.16961559635311</v>
       </c>
       <c r="O12">
-        <v>27.47943568126581</v>
+        <v>14.44622870668093</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.54904099875787</v>
+        <v>27.02726322284037</v>
       </c>
       <c r="C13">
-        <v>16.7930911758064</v>
+        <v>11.96276313304039</v>
       </c>
       <c r="D13">
-        <v>5.207387669901252</v>
+        <v>4.984987945362553</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>39.02115854575825</v>
+        <v>20.13355224915444</v>
       </c>
       <c r="G13">
-        <v>2.051857066353042</v>
+        <v>25.96483391818321</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.133313879474674</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.593691044961739</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>22.0268834843341</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.560511391915112</v>
       </c>
       <c r="M13">
-        <v>18.82396861933908</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.04691859702722</v>
+        <v>11.17470870328386</v>
       </c>
       <c r="O13">
-        <v>27.42998078863487</v>
+        <v>14.42529341447075</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.30534820134758</v>
+        <v>26.79024656942322</v>
       </c>
       <c r="C14">
-        <v>16.63308068358378</v>
+        <v>11.92282195851267</v>
       </c>
       <c r="D14">
-        <v>5.181925752728551</v>
+        <v>4.953892756203619</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.76937348037212</v>
+        <v>19.99679113147625</v>
       </c>
       <c r="G14">
-        <v>2.053687484376344</v>
+        <v>25.76193233628465</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.117302370785014</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.584784623450239</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>21.81799441039843</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.49850860983781</v>
       </c>
       <c r="M14">
-        <v>18.64517701906682</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.09704806899629</v>
+        <v>11.19143834883682</v>
       </c>
       <c r="O14">
-        <v>27.26913711336908</v>
+        <v>14.35729159628598</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.15532496382006</v>
+        <v>26.64410875536901</v>
       </c>
       <c r="C15">
-        <v>16.5345771872643</v>
+        <v>11.89830921410186</v>
       </c>
       <c r="D15">
-        <v>5.166314190553386</v>
+        <v>4.934745370996876</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.61543646299585</v>
+        <v>19.91301368655346</v>
       </c>
       <c r="G15">
-        <v>2.054809600768027</v>
+        <v>25.63757897298067</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.107647930288733</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.579417650802821</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>21.68938999479481</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.460456615456575</v>
       </c>
       <c r="M15">
-        <v>18.53510417348089</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.12780571427304</v>
+        <v>11.20177728631327</v>
       </c>
       <c r="O15">
-        <v>27.17095199108966</v>
+        <v>14.31584859517636</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.28389327325982</v>
+        <v>25.7919066366532</v>
       </c>
       <c r="C16">
-        <v>15.96243609740016</v>
+        <v>11.75713723205582</v>
       </c>
       <c r="D16">
-        <v>5.076626615917881</v>
+        <v>4.823486706724841</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.73767872362933</v>
+        <v>19.4328972780365</v>
       </c>
       <c r="G16">
-        <v>2.061256623414577</v>
+        <v>24.92399757641487</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.054640204623928</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.549990538033371</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>20.94225355337051</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.241307359305013</v>
       </c>
       <c r="M16">
-        <v>17.89565656030364</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.30486914778239</v>
+        <v>11.26240454329125</v>
       </c>
       <c r="O16">
-        <v>26.61339498814423</v>
+        <v>14.0815967232638</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.73869614747876</v>
+        <v>25.25588863986211</v>
       </c>
       <c r="C17">
-        <v>15.60449819153258</v>
+        <v>11.66994271287199</v>
       </c>
       <c r="D17">
-        <v>5.021420596010557</v>
+        <v>4.753877671638167</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.20310705070682</v>
+        <v>19.13844706511863</v>
       </c>
       <c r="G17">
-        <v>2.065228940947844</v>
+        <v>24.4855163735127</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.024158761921351</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.533094926886163</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>20.47470441689357</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.105939220029619</v>
       </c>
       <c r="M17">
-        <v>17.57246854516397</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.4142194614121</v>
+        <v>11.30080246673869</v>
       </c>
       <c r="O17">
-        <v>26.27585805387212</v>
+        <v>13.94080617084231</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.42115839814944</v>
+        <v>24.94270280945582</v>
       </c>
       <c r="C18">
-        <v>15.39602437496397</v>
+        <v>11.61958764911055</v>
       </c>
       <c r="D18">
-        <v>4.989605500133271</v>
+        <v>4.713347499780805</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>36.89707097585747</v>
+        <v>18.96916303869399</v>
       </c>
       <c r="G18">
-        <v>2.06752099238895</v>
+        <v>24.23310745675791</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.007362586350498</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.52379106880512</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>20.20234507931935</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.027757151261548</v>
       </c>
       <c r="M18">
-        <v>17.39055375615325</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.47738685774756</v>
+        <v>11.3233210550169</v>
       </c>
       <c r="O18">
-        <v>26.08335706487943</v>
+        <v>13.8609076623877</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.31296098997294</v>
+        <v>24.83582262450397</v>
       </c>
       <c r="C19">
-        <v>15.32498857171031</v>
+        <v>11.60250474419343</v>
       </c>
       <c r="D19">
-        <v>4.978823425206114</v>
+        <v>4.699540556563032</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>36.7936996178578</v>
+        <v>18.9118638987951</v>
       </c>
       <c r="G19">
-        <v>2.068298376729726</v>
+        <v>24.14761682446071</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.001800860799085</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.520711024041637</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>20.10953348668846</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.001232668319238</v>
       </c>
       <c r="M19">
-        <v>17.32877451190352</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>12.49882144075976</v>
+        <v>11.33101895787738</v>
       </c>
       <c r="O19">
-        <v>26.0184603686367</v>
+        <v>13.83404182165794</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.7971413335455</v>
+        <v>25.31345344302772</v>
       </c>
       <c r="C20">
-        <v>15.64286914380621</v>
+        <v>11.67924605195656</v>
       </c>
       <c r="D20">
-        <v>5.02730393983543</v>
+        <v>4.761338809211627</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.2598646793213</v>
+        <v>19.16978498100067</v>
       </c>
       <c r="G20">
-        <v>2.064805347942653</v>
+        <v>24.53221619783573</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.027327105806497</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.534850394147059</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>20.52483038017639</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.120383150374566</v>
       </c>
       <c r="M20">
-        <v>17.60604813510201</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.4025508944892</v>
+        <v>11.29666990201587</v>
       </c>
       <c r="O20">
-        <v>26.3116192921636</v>
+        <v>13.95568194104167</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.37708353192879</v>
+        <v>26.86006366934036</v>
       </c>
       <c r="C21">
-        <v>16.6801820023744</v>
+        <v>11.93456364614888</v>
       </c>
       <c r="D21">
-        <v>5.189407772179588</v>
+        <v>4.963047173435415</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.84326861553711</v>
+        <v>20.03696291770251</v>
       </c>
       <c r="G21">
-        <v>2.053149657624797</v>
+        <v>25.82154435567802</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.12197337252227</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.587382152788977</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>21.87948612172654</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.516735733956242</v>
       </c>
       <c r="M21">
-        <v>18.69780841696433</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.08231303098506</v>
+        <v>11.18650530918381</v>
       </c>
       <c r="O21">
-        <v>27.316310582598</v>
+        <v>14.37722164981463</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.37574263083856</v>
+        <v>27.82790716414498</v>
       </c>
       <c r="C22">
-        <v>17.33596436214779</v>
+        <v>12.09933357922812</v>
       </c>
       <c r="D22">
-        <v>5.294678420278168</v>
+        <v>5.090382265438925</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>39.89102378694718</v>
+        <v>20.60350167206752</v>
       </c>
       <c r="G22">
-        <v>2.045576280479074</v>
+        <v>26.66120000135957</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.190647643318218</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.625643992422801</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>22.73541891061411</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.772533869002743</v>
       </c>
       <c r="M22">
-        <v>19.4304412604507</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.87535366817752</v>
+        <v>11.11857706193683</v>
       </c>
       <c r="O22">
-        <v>27.98794075833659</v>
+        <v>14.66214974415339</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.84577693064898</v>
+        <v>27.31525556615127</v>
       </c>
       <c r="C23">
-        <v>16.98793918847664</v>
+        <v>12.01159780714428</v>
       </c>
       <c r="D23">
-        <v>5.238560170441615</v>
+        <v>5.022836684933827</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>39.33061788305173</v>
+        <v>20.30118704412876</v>
       </c>
       <c r="G23">
-        <v>2.049615342487726</v>
+        <v>26.2133819899219</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.153358745615796</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.604851173531288</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>22.28122162244619</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.636322227758981</v>
       </c>
       <c r="M23">
-        <v>19.04166555201445</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.98560149635945</v>
+        <v>11.1544482471786</v>
       </c>
       <c r="O23">
-        <v>27.62808031494913</v>
+        <v>14.50922499646861</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.77073103889848</v>
+        <v>25.28744404347637</v>
       </c>
       <c r="C24">
-        <v>15.62553002711033</v>
+        <v>11.67504071234219</v>
       </c>
       <c r="D24">
-        <v>5.024644316668709</v>
+        <v>4.757967219367599</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.23420051755927</v>
+        <v>19.15561710085091</v>
       </c>
       <c r="G24">
-        <v>2.064996828227903</v>
+        <v>24.51110419074777</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.025892432928201</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.534055474040345</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>20.50217953086314</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.113854157383349</v>
       </c>
       <c r="M24">
-        <v>17.59087045611555</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.40782531669799</v>
+        <v>11.29853685663192</v>
       </c>
       <c r="O24">
-        <v>26.29544680098925</v>
+        <v>13.94895335179854</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.3806647249836</v>
+        <v>22.91316282911249</v>
       </c>
       <c r="C25">
-        <v>14.05618265227287</v>
+        <v>11.30443781395582</v>
       </c>
       <c r="D25">
-        <v>4.791637362509279</v>
+        <v>4.453510717219017</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.02817817874764</v>
+        <v>17.92358262574865</v>
       </c>
       <c r="G25">
-        <v>2.081875998596875</v>
+        <v>22.66812804707568</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.916355974044308</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.473396443865939</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>18.4511933110192</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.53830619867697</v>
       </c>
       <c r="M25">
-        <v>16.24454590730994</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>12.8737460917973</v>
+        <v>11.47041834505279</v>
       </c>
       <c r="O25">
-        <v>24.92076786534357</v>
+        <v>13.38601308243965</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.00120684277378</v>
+        <v>14.59643625221294</v>
       </c>
       <c r="C2">
-        <v>11.02668125673932</v>
+        <v>12.34594967997777</v>
       </c>
       <c r="D2">
-        <v>4.213935564929938</v>
+        <v>4.111064188861349</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.02548954167135</v>
+        <v>21.00532472282775</v>
       </c>
       <c r="G2">
-        <v>21.313741220105</v>
+        <v>23.30210648127286</v>
       </c>
       <c r="H2">
-        <v>7.858147375784384</v>
+        <v>12.75543502850116</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.1068062654049</v>
+        <v>10.63791345242836</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.61015174376174</v>
+        <v>16.70572584640052</v>
       </c>
       <c r="O2">
-        <v>13.00788652370382</v>
+        <v>18.70743494873291</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60184666361894</v>
+        <v>14.043647788201</v>
       </c>
       <c r="C3">
-        <v>10.83629263631689</v>
+        <v>12.29562328194713</v>
       </c>
       <c r="D3">
-        <v>4.042455758590714</v>
+        <v>4.04837263468885</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.42611038299707</v>
+        <v>20.97220032541269</v>
       </c>
       <c r="G3">
-        <v>20.40302633544878</v>
+        <v>23.21336587745706</v>
       </c>
       <c r="H3">
-        <v>7.831819929741456</v>
+        <v>12.79130364475449</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.811207875704899</v>
+        <v>10.60912633936949</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.71264524250441</v>
+        <v>16.7469185550067</v>
       </c>
       <c r="O3">
-        <v>12.77451923807304</v>
+        <v>18.74170346069273</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69106987325713</v>
+        <v>13.69438327828685</v>
       </c>
       <c r="C4">
-        <v>10.71865164257439</v>
+        <v>12.26522658134587</v>
       </c>
       <c r="D4">
-        <v>3.932878856058788</v>
+        <v>4.008874866494646</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.06402669558188</v>
+        <v>20.95849463701322</v>
       </c>
       <c r="G4">
-        <v>19.84959217951051</v>
+        <v>23.16829677946267</v>
       </c>
       <c r="H4">
-        <v>7.82181509809842</v>
+        <v>12.81575437365076</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.628803812421952</v>
+        <v>10.59359583528836</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.77929678779761</v>
+        <v>16.77399418392744</v>
       </c>
       <c r="O4">
-        <v>12.64251560505109</v>
+        <v>18.76773952502286</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.30689069773933</v>
+        <v>13.5497901020752</v>
       </c>
       <c r="C5">
-        <v>10.67057565734446</v>
+        <v>12.25297309837267</v>
       </c>
       <c r="D5">
-        <v>3.88718448488005</v>
+        <v>3.992536677548201</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.91818671056152</v>
+        <v>20.95458157079884</v>
       </c>
       <c r="G5">
-        <v>19.62587689704901</v>
+        <v>23.15231375024963</v>
       </c>
       <c r="H5">
-        <v>7.819239120058199</v>
+        <v>12.82632781373001</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.554354919263492</v>
+        <v>10.58781109709847</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.80737615079414</v>
+        <v>16.78547679600859</v>
       </c>
       <c r="O5">
-        <v>12.59155050789056</v>
+        <v>18.7796022381818</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24230920979532</v>
+        <v>13.52565035091116</v>
       </c>
       <c r="C6">
-        <v>10.66258593211008</v>
+        <v>12.25094666845947</v>
       </c>
       <c r="D6">
-        <v>3.87953529677315</v>
+        <v>3.989809389416263</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.89408002466069</v>
+        <v>20.95403288905206</v>
       </c>
       <c r="G6">
-        <v>19.58884991897722</v>
+        <v>23.14980405804128</v>
       </c>
       <c r="H6">
-        <v>7.818900606244116</v>
+        <v>12.82812031809306</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.541989011044723</v>
+        <v>10.58688353346424</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.81209369917849</v>
+        <v>16.78741061842045</v>
       </c>
       <c r="O6">
-        <v>12.58325804097176</v>
+        <v>18.78164759527327</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68594154118158</v>
+        <v>13.69244211857708</v>
       </c>
       <c r="C7">
-        <v>10.71800375784448</v>
+        <v>12.26506077762326</v>
       </c>
       <c r="D7">
-        <v>3.932266767163216</v>
+        <v>4.008655492277345</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.06205261996831</v>
+        <v>20.958435089468</v>
       </c>
       <c r="G7">
-        <v>19.84656722878583</v>
+        <v>23.16807156165824</v>
       </c>
       <c r="H7">
-        <v>7.821774344405173</v>
+        <v>12.81589450371487</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.627800093564908</v>
+        <v>10.5935156115376</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.77967177920427</v>
+        <v>16.77414722324891</v>
       </c>
       <c r="O7">
-        <v>12.64181684551052</v>
+        <v>18.76789444179764</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52937029819357</v>
+        <v>14.40799929779707</v>
       </c>
       <c r="C8">
-        <v>10.96121887255783</v>
+        <v>12.3284966081234</v>
       </c>
       <c r="D8">
-        <v>4.155719938346629</v>
+        <v>4.089662692154343</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.81772005673886</v>
+        <v>20.99252987012304</v>
       </c>
       <c r="G8">
-        <v>20.99874604025255</v>
+        <v>23.26956412994504</v>
       </c>
       <c r="H8">
-        <v>7.847762770511062</v>
+        <v>12.76729829402121</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.005134944435838</v>
+        <v>10.62754546846141</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.64470861688654</v>
+        <v>16.71955941297818</v>
       </c>
       <c r="O8">
-        <v>12.92507655967574</v>
+        <v>18.71821219231641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.73818947376732</v>
+        <v>15.72487033920883</v>
       </c>
       <c r="C9">
-        <v>11.43014860856647</v>
+        <v>12.45659450220896</v>
       </c>
       <c r="D9">
-        <v>4.558516040125242</v>
+        <v>4.240117445972235</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.33762820744489</v>
+        <v>21.11174967548959</v>
       </c>
       <c r="G9">
-        <v>23.28918161279945</v>
+        <v>23.54247145499841</v>
       </c>
       <c r="H9">
-        <v>7.949655670621492</v>
+        <v>12.69129400438746</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.733574991286225</v>
+        <v>10.71106651806844</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.41041159765732</v>
+        <v>16.6266309211507</v>
       </c>
       <c r="O9">
-        <v>13.57003511735082</v>
+        <v>18.66054473840141</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.85241018285753</v>
+        <v>16.63027583817763</v>
       </c>
       <c r="C10">
-        <v>11.76705820814067</v>
+        <v>12.55256054940213</v>
       </c>
       <c r="D10">
-        <v>4.831362402581264</v>
+        <v>4.344993546664909</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.46650307839737</v>
+        <v>21.23078158430192</v>
       </c>
       <c r="G10">
-        <v>24.97399895245613</v>
+        <v>23.78660437111249</v>
       </c>
       <c r="H10">
-        <v>8.058218998937946</v>
+        <v>12.64725868142667</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.256708783262699</v>
+        <v>10.78232316975521</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.25808245694887</v>
+        <v>16.56692207113197</v>
       </c>
       <c r="O10">
-        <v>14.09780766036191</v>
+        <v>18.64255771302783</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.76235743315774</v>
+        <v>17.02707150672954</v>
       </c>
       <c r="C11">
-        <v>11.91813717106329</v>
+        <v>12.59653251094771</v>
       </c>
       <c r="D11">
-        <v>4.950237153686813</v>
+        <v>4.39136826425701</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.98077068128578</v>
+        <v>21.29161954365954</v>
       </c>
       <c r="G11">
-        <v>25.73815624561958</v>
+        <v>23.90675983750628</v>
       </c>
       <c r="H11">
-        <v>8.11544709016286</v>
+        <v>12.62979751880094</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.491236233184624</v>
+        <v>10.81680500871575</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.19341006058503</v>
+        <v>16.54161053427248</v>
       </c>
       <c r="O11">
-        <v>14.34935394793314</v>
+        <v>18.63968890993211</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.09955874832674</v>
+        <v>17.17504813240705</v>
       </c>
       <c r="C12">
-        <v>11.97499115994471</v>
+        <v>12.61322147623457</v>
       </c>
       <c r="D12">
-        <v>4.994482513164409</v>
+        <v>4.408728972193067</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.17548410694769</v>
+        <v>21.31560470845686</v>
       </c>
       <c r="G12">
-        <v>26.02702135590136</v>
+        <v>23.9535307575172</v>
       </c>
       <c r="H12">
-        <v>8.138284902537452</v>
+        <v>12.6235556853692</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.579493874308982</v>
+        <v>10.83015183107262</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.16961559635311</v>
+        <v>16.53229117501231</v>
       </c>
       <c r="O12">
-        <v>14.44622870668093</v>
+        <v>18.63936731728579</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.02726322284037</v>
+        <v>17.14328181810799</v>
       </c>
       <c r="C13">
-        <v>11.96276313304039</v>
+        <v>12.60962565496748</v>
       </c>
       <c r="D13">
-        <v>4.984987945362553</v>
+        <v>4.404999077191278</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.13355224915444</v>
+        <v>21.31039720342238</v>
       </c>
       <c r="G13">
-        <v>25.96483391818321</v>
+        <v>23.94340192312758</v>
       </c>
       <c r="H13">
-        <v>8.133313879474674</v>
+        <v>12.62488349552778</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.560511391915112</v>
+        <v>10.82726461802301</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.17470870328386</v>
+        <v>16.53428646229492</v>
       </c>
       <c r="O13">
-        <v>14.42529341447075</v>
+        <v>18.63940256056462</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.79024656942322</v>
+        <v>17.03929194663018</v>
       </c>
       <c r="C14">
-        <v>11.92282195851267</v>
+        <v>12.59790481058646</v>
       </c>
       <c r="D14">
-        <v>4.953892756203619</v>
+        <v>4.392800603759668</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.99679113147625</v>
+        <v>21.29357392626423</v>
       </c>
       <c r="G14">
-        <v>25.76193233628465</v>
+        <v>23.91058247026425</v>
       </c>
       <c r="H14">
-        <v>8.117302370785014</v>
+        <v>12.62927657389095</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.49850860983781</v>
+        <v>10.81789730870902</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.19143834883682</v>
+        <v>16.54083850537437</v>
       </c>
       <c r="O14">
-        <v>14.35729159628598</v>
+        <v>18.63964712358368</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.64410875536901</v>
+        <v>16.97529496238866</v>
       </c>
       <c r="C15">
-        <v>11.89830921410186</v>
+        <v>12.59073013777463</v>
       </c>
       <c r="D15">
-        <v>4.934745370996876</v>
+        <v>4.385302343108242</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.91301368655346</v>
+        <v>21.28339206106615</v>
       </c>
       <c r="G15">
-        <v>25.63757897298067</v>
+        <v>23.89064391310832</v>
       </c>
       <c r="H15">
-        <v>8.107647930288733</v>
+        <v>12.63201570763068</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.460456615456575</v>
+        <v>10.81219699424912</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.20177728631327</v>
+        <v>16.54488639140207</v>
       </c>
       <c r="O15">
-        <v>14.31584859517636</v>
+        <v>18.63989652995908</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.7919066366532</v>
+        <v>16.60403087994295</v>
       </c>
       <c r="C16">
-        <v>11.75713723205582</v>
+        <v>12.54969258399096</v>
       </c>
       <c r="D16">
-        <v>4.823486706724841</v>
+        <v>4.341935264314492</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.4328972780365</v>
+        <v>21.22693906693506</v>
       </c>
       <c r="G16">
-        <v>24.92399757641487</v>
+        <v>23.77893186126757</v>
       </c>
       <c r="H16">
-        <v>8.054640204623928</v>
+        <v>12.6484515972286</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.241307359305013</v>
+        <v>10.7801106243763</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.26240454329125</v>
+        <v>16.56861342934671</v>
       </c>
       <c r="O16">
-        <v>14.0815967232638</v>
+        <v>18.64285218986563</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25588863986211</v>
+        <v>16.37232513401253</v>
       </c>
       <c r="C17">
-        <v>11.66994271287199</v>
+        <v>12.52459292808516</v>
       </c>
       <c r="D17">
-        <v>4.753877671638167</v>
+        <v>4.314983067856137</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.13844706511863</v>
+        <v>21.19401038396319</v>
       </c>
       <c r="G17">
-        <v>24.4855163735127</v>
+        <v>23.71270462764084</v>
       </c>
       <c r="H17">
-        <v>8.024158761921351</v>
+        <v>12.65919340050719</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.105939220029619</v>
+        <v>10.76095055456489</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.30080246673869</v>
+        <v>16.58364274635523</v>
       </c>
       <c r="O17">
-        <v>13.94080617084231</v>
+        <v>18.64602699195344</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.94270280945582</v>
+        <v>16.23764063726595</v>
       </c>
       <c r="C18">
-        <v>11.61958764911055</v>
+        <v>12.51018653214551</v>
       </c>
       <c r="D18">
-        <v>4.713347499780805</v>
+        <v>4.29935580381018</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.96916303869399</v>
+        <v>21.17570134542888</v>
       </c>
       <c r="G18">
-        <v>24.23310745675791</v>
+        <v>23.67547130414699</v>
       </c>
       <c r="H18">
-        <v>8.007362586350498</v>
+        <v>12.66561373511283</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.027757151261548</v>
+        <v>10.75012523142013</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.3233210550169</v>
+        <v>16.59246140173237</v>
       </c>
       <c r="O18">
-        <v>13.8609076623877</v>
+        <v>18.64835319017021</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.83582262450397</v>
+        <v>16.19179971661744</v>
       </c>
       <c r="C19">
-        <v>11.60250474419343</v>
+        <v>12.50531420765162</v>
       </c>
       <c r="D19">
-        <v>4.699540556563032</v>
+        <v>4.294043467835632</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.9118638987951</v>
+        <v>21.16961096129877</v>
       </c>
       <c r="G19">
-        <v>24.14761682446071</v>
+        <v>23.6630133402817</v>
       </c>
       <c r="H19">
-        <v>8.001800860799085</v>
+        <v>12.66782908113005</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.001232668319238</v>
+        <v>10.74649369542389</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.33101895787738</v>
+        <v>16.59547717978267</v>
       </c>
       <c r="O19">
-        <v>13.83404182165794</v>
+        <v>18.64922666972377</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.31345344302772</v>
+        <v>16.39713776443723</v>
       </c>
       <c r="C20">
-        <v>11.67924605195656</v>
+        <v>12.52726175343428</v>
       </c>
       <c r="D20">
-        <v>4.761338809211627</v>
+        <v>4.317865183342387</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.16978498100067</v>
+        <v>21.1974505285827</v>
       </c>
       <c r="G20">
-        <v>24.53221619783573</v>
+        <v>23.71966600675216</v>
       </c>
       <c r="H20">
-        <v>8.027327105806497</v>
+        <v>12.65802487298349</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.120383150374566</v>
+        <v>10.76297004646192</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.29666990201587</v>
+        <v>16.58202482560882</v>
       </c>
       <c r="O20">
-        <v>13.95568194104167</v>
+        <v>18.64563725990671</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.86006366934036</v>
+        <v>17.06989903162643</v>
       </c>
       <c r="C21">
-        <v>11.93456364614888</v>
+        <v>12.60134654475782</v>
       </c>
       <c r="D21">
-        <v>4.963047173435415</v>
+        <v>4.396389095708286</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.03696291770251</v>
+        <v>21.29848975176329</v>
       </c>
       <c r="G21">
-        <v>25.82154435567802</v>
+        <v>23.92018816956091</v>
       </c>
       <c r="H21">
-        <v>8.12197337252227</v>
+        <v>12.62797616469365</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.516735733956242</v>
+        <v>10.82064092824552</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.18650530918381</v>
+        <v>16.53890680792134</v>
       </c>
       <c r="O21">
-        <v>14.37722164981463</v>
+        <v>18.6395545316341</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.82790716414498</v>
+        <v>17.49624835307193</v>
       </c>
       <c r="C22">
-        <v>12.09933357922812</v>
+        <v>12.64998156090708</v>
       </c>
       <c r="D22">
-        <v>5.090382265438925</v>
+        <v>4.446537325058643</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.60350167206752</v>
+        <v>21.37003738123851</v>
       </c>
       <c r="G22">
-        <v>26.66120000135957</v>
+        <v>24.058627723144</v>
       </c>
       <c r="H22">
-        <v>8.190647643318218</v>
+        <v>12.61049642187858</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.772533869002743</v>
+        <v>10.86001446496953</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.11857706193683</v>
+        <v>16.5122744165287</v>
       </c>
       <c r="O22">
-        <v>14.66214974415339</v>
+        <v>18.64003662629442</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.31525556615127</v>
+        <v>17.26995170788683</v>
       </c>
       <c r="C23">
-        <v>12.01159780714428</v>
+        <v>12.624006926606</v>
       </c>
       <c r="D23">
-        <v>5.022836684933827</v>
+        <v>4.419882194434817</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.30118704412876</v>
+        <v>21.33135198938579</v>
       </c>
       <c r="G23">
-        <v>26.2133819899219</v>
+        <v>23.98407727460434</v>
       </c>
       <c r="H23">
-        <v>8.153358745615796</v>
+        <v>12.6196279556723</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.636322227758981</v>
+        <v>10.83884886274504</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.1544482471786</v>
+        <v>16.52634717003002</v>
       </c>
       <c r="O23">
-        <v>14.50922499646861</v>
+        <v>18.63937138980362</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.28744404347637</v>
+        <v>16.38592455595202</v>
       </c>
       <c r="C24">
-        <v>11.67504071234219</v>
+        <v>12.52605510297888</v>
       </c>
       <c r="D24">
-        <v>4.757967219367599</v>
+        <v>4.316562589697749</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.15561710085091</v>
+        <v>21.19589330029786</v>
       </c>
       <c r="G24">
-        <v>24.51110419074777</v>
+        <v>23.71651614292567</v>
       </c>
       <c r="H24">
-        <v>8.025892432928201</v>
+        <v>12.65855240200381</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.113854157383349</v>
+        <v>10.76205644158107</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.29853685663192</v>
+        <v>16.58275573276018</v>
       </c>
       <c r="O24">
-        <v>13.94895335179854</v>
+        <v>18.64581189735037</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.91316282911249</v>
+        <v>15.37891983264817</v>
       </c>
       <c r="C25">
-        <v>11.30443781395582</v>
+        <v>12.42158568977704</v>
       </c>
       <c r="D25">
-        <v>4.453510717219017</v>
+        <v>4.200372302001971</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.92358262574865</v>
+        <v>21.07393427587497</v>
       </c>
       <c r="G25">
-        <v>22.66812804707568</v>
+        <v>23.46086379784549</v>
       </c>
       <c r="H25">
-        <v>7.916355974044308</v>
+        <v>12.70978502880779</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.53830619867697</v>
+        <v>10.6867077095683</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.47041834505279</v>
+        <v>16.650263412098</v>
       </c>
       <c r="O25">
-        <v>13.38601308243965</v>
+        <v>18.67187198338943</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.59643625221294</v>
+        <v>21.00120684277377</v>
       </c>
       <c r="C2">
-        <v>12.34594967997777</v>
+        <v>11.02668125673933</v>
       </c>
       <c r="D2">
-        <v>4.111064188861349</v>
+        <v>4.213935564929829</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.00532472282775</v>
+        <v>17.02548954167142</v>
       </c>
       <c r="G2">
-        <v>23.30210648127286</v>
+        <v>21.31374122010508</v>
       </c>
       <c r="H2">
-        <v>12.75543502850116</v>
+        <v>7.858147375784428</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.63791345242836</v>
+        <v>8.106806265404886</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.70572584640052</v>
+        <v>11.61015174376177</v>
       </c>
       <c r="O2">
-        <v>18.70743494873291</v>
+        <v>13.00788652370388</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.043647788201</v>
+        <v>19.60184666361894</v>
       </c>
       <c r="C3">
-        <v>12.29562328194713</v>
+        <v>10.83629263631699</v>
       </c>
       <c r="D3">
-        <v>4.04837263468885</v>
+        <v>4.042455758590815</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.97220032541269</v>
+        <v>16.42611038299703</v>
       </c>
       <c r="G3">
-        <v>23.21336587745706</v>
+        <v>20.40302633544876</v>
       </c>
       <c r="H3">
-        <v>12.79130364475449</v>
+        <v>7.831819929741514</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.60912633936949</v>
+        <v>7.811207875704911</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.7469185550067</v>
+        <v>11.71264524250447</v>
       </c>
       <c r="O3">
-        <v>18.74170346069273</v>
+        <v>12.77451923807308</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.69438327828685</v>
+        <v>18.69106987325718</v>
       </c>
       <c r="C4">
-        <v>12.26522658134587</v>
+        <v>10.71865164257463</v>
       </c>
       <c r="D4">
-        <v>4.008874866494646</v>
+        <v>3.9328788560588</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.95849463701322</v>
+        <v>16.06402669558166</v>
       </c>
       <c r="G4">
-        <v>23.16829677946267</v>
+        <v>19.84959217951035</v>
       </c>
       <c r="H4">
-        <v>12.81575437365076</v>
+        <v>7.821815098098319</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.59359583528836</v>
+        <v>7.628803812421937</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.77399418392744</v>
+        <v>11.77929678779754</v>
       </c>
       <c r="O4">
-        <v>18.76773952502286</v>
+        <v>12.64251560505088</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.5497901020752</v>
+        <v>18.30689069773932</v>
       </c>
       <c r="C5">
-        <v>12.25297309837267</v>
+        <v>10.67057565734456</v>
       </c>
       <c r="D5">
-        <v>3.992536677548201</v>
+        <v>3.887184484879979</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.95458157079884</v>
+        <v>15.91818671056162</v>
       </c>
       <c r="G5">
-        <v>23.15231375024963</v>
+        <v>19.62587689704903</v>
       </c>
       <c r="H5">
-        <v>12.82632781373001</v>
+        <v>7.819239120058208</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.58781109709847</v>
+        <v>7.554354919263549</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.78547679600859</v>
+        <v>11.80737615079414</v>
       </c>
       <c r="O5">
-        <v>18.7796022381818</v>
+        <v>12.59155050789061</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.52565035091116</v>
+        <v>18.24230920979532</v>
       </c>
       <c r="C6">
-        <v>12.25094666845947</v>
+        <v>10.66258593211021</v>
       </c>
       <c r="D6">
-        <v>3.989809389416263</v>
+        <v>3.879535296773241</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.95403288905206</v>
+        <v>15.8940800246606</v>
       </c>
       <c r="G6">
-        <v>23.14980405804128</v>
+        <v>19.58884991897709</v>
       </c>
       <c r="H6">
-        <v>12.82812031809306</v>
+        <v>7.818900606244116</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.58688353346424</v>
+        <v>7.541989011044671</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.78741061842045</v>
+        <v>11.81209369917842</v>
       </c>
       <c r="O6">
-        <v>18.78164759527327</v>
+        <v>12.58325804097171</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.69244211857708</v>
+        <v>18.68594154118158</v>
       </c>
       <c r="C7">
-        <v>12.26506077762326</v>
+        <v>10.71800375784449</v>
       </c>
       <c r="D7">
-        <v>4.008655492277345</v>
+        <v>3.93226676716327</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.958435089468</v>
+        <v>16.06205261996836</v>
       </c>
       <c r="G7">
-        <v>23.16807156165824</v>
+        <v>19.84656722878577</v>
       </c>
       <c r="H7">
-        <v>12.81589450371487</v>
+        <v>7.821774344405238</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.5935156115376</v>
+        <v>7.627800093564882</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.77414722324891</v>
+        <v>11.7796717792043</v>
       </c>
       <c r="O7">
-        <v>18.76789444179764</v>
+        <v>12.64181684551057</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.40799929779707</v>
+        <v>20.52937029819356</v>
       </c>
       <c r="C8">
-        <v>12.3284966081234</v>
+        <v>10.96121887255804</v>
       </c>
       <c r="D8">
-        <v>4.089662692154343</v>
+        <v>4.155719938346661</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.99252987012304</v>
+        <v>16.81772005673885</v>
       </c>
       <c r="G8">
-        <v>23.26956412994504</v>
+        <v>20.99874604025253</v>
       </c>
       <c r="H8">
-        <v>12.76729829402121</v>
+        <v>7.847762770511098</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.62754546846141</v>
+        <v>8.005134944435831</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.71955941297818</v>
+        <v>11.64470861688661</v>
       </c>
       <c r="O8">
-        <v>18.71821219231641</v>
+        <v>12.9250765596758</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.72487033920883</v>
+        <v>23.73818947376733</v>
       </c>
       <c r="C9">
-        <v>12.45659450220896</v>
+        <v>11.43014860856636</v>
       </c>
       <c r="D9">
-        <v>4.240117445972235</v>
+        <v>4.558516040125314</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.11174967548959</v>
+        <v>18.3376282074449</v>
       </c>
       <c r="G9">
-        <v>23.54247145499841</v>
+        <v>23.28918161279948</v>
       </c>
       <c r="H9">
-        <v>12.69129400438746</v>
+        <v>7.94965567062159</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.71106651806844</v>
+        <v>8.733574991286192</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.6266309211507</v>
+        <v>11.41041159765731</v>
       </c>
       <c r="O9">
-        <v>18.66054473840141</v>
+        <v>13.57003511735087</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.63027583817763</v>
+        <v>25.85241018285752</v>
       </c>
       <c r="C10">
-        <v>12.55256054940213</v>
+        <v>11.7670582081408</v>
       </c>
       <c r="D10">
-        <v>4.344993546664909</v>
+        <v>4.831362402581317</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.23078158430192</v>
+        <v>19.46650307839734</v>
       </c>
       <c r="G10">
-        <v>23.78660437111249</v>
+        <v>24.9739989524561</v>
       </c>
       <c r="H10">
-        <v>12.64725868142667</v>
+        <v>8.058218998937864</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.78232316975521</v>
+        <v>9.25670878326271</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.56692207113197</v>
+        <v>11.25808245694884</v>
       </c>
       <c r="O10">
-        <v>18.64255771302783</v>
+        <v>14.09780766036184</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.02707150672954</v>
+        <v>26.7623574331577</v>
       </c>
       <c r="C11">
-        <v>12.59653251094771</v>
+        <v>11.9181371710633</v>
       </c>
       <c r="D11">
-        <v>4.39136826425701</v>
+        <v>4.950237153686833</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.29161954365954</v>
+        <v>19.98077068128581</v>
       </c>
       <c r="G11">
-        <v>23.90675983750628</v>
+        <v>25.73815624561962</v>
       </c>
       <c r="H11">
-        <v>12.62979751880094</v>
+        <v>8.115447090162869</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.81680500871575</v>
+        <v>9.491236233184603</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.54161053427248</v>
+        <v>11.19341006058506</v>
       </c>
       <c r="O11">
-        <v>18.63968890993211</v>
+        <v>14.34935394793319</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.17504813240705</v>
+        <v>27.09955874832682</v>
       </c>
       <c r="C12">
-        <v>12.61322147623457</v>
+        <v>11.9749911599445</v>
       </c>
       <c r="D12">
-        <v>4.408728972193067</v>
+        <v>4.994482513164537</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.31560470845686</v>
+        <v>20.17548410694763</v>
       </c>
       <c r="G12">
-        <v>23.9535307575172</v>
+        <v>26.02702135590139</v>
       </c>
       <c r="H12">
-        <v>12.6235556853692</v>
+        <v>8.13828490253737</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.83015183107262</v>
+        <v>9.579493874308961</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.53229117501231</v>
+        <v>11.16961559635304</v>
       </c>
       <c r="O12">
-        <v>18.63936731728579</v>
+        <v>14.44622870668089</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.14328181810799</v>
+        <v>27.02726322284043</v>
       </c>
       <c r="C13">
-        <v>12.60962565496748</v>
+        <v>11.96276313304016</v>
       </c>
       <c r="D13">
-        <v>4.404999077191278</v>
+        <v>4.984987945362628</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.31039720342238</v>
+        <v>20.13355224915443</v>
       </c>
       <c r="G13">
-        <v>23.94340192312758</v>
+        <v>25.96483391818327</v>
       </c>
       <c r="H13">
-        <v>12.62488349552778</v>
+        <v>8.133313879474574</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.82726461802301</v>
+        <v>9.560511391915105</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.53428646229492</v>
+        <v>11.17470870328379</v>
       </c>
       <c r="O13">
-        <v>18.63940256056462</v>
+        <v>14.42529341447072</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.03929194663018</v>
+        <v>26.79024656942325</v>
       </c>
       <c r="C14">
-        <v>12.59790481058646</v>
+        <v>11.92282195851257</v>
       </c>
       <c r="D14">
-        <v>4.392800603759668</v>
+        <v>4.953892756203591</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.29357392626423</v>
+        <v>19.99679113147624</v>
       </c>
       <c r="G14">
-        <v>23.91058247026425</v>
+        <v>25.76193233628459</v>
       </c>
       <c r="H14">
-        <v>12.62927657389095</v>
+        <v>8.117302370785005</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.81789730870902</v>
+        <v>9.498508609837833</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.54083850537437</v>
+        <v>11.19143834883683</v>
       </c>
       <c r="O14">
-        <v>18.63964712358368</v>
+        <v>14.35729159628593</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.97529496238866</v>
+        <v>26.64410875536893</v>
       </c>
       <c r="C15">
-        <v>12.59073013777463</v>
+        <v>11.89830921410207</v>
       </c>
       <c r="D15">
-        <v>4.385302343108242</v>
+        <v>4.934745370997017</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.28339206106615</v>
+        <v>19.91301368655352</v>
       </c>
       <c r="G15">
-        <v>23.89064391310832</v>
+        <v>25.63757897298079</v>
       </c>
       <c r="H15">
-        <v>12.63201570763068</v>
+        <v>8.107647930288852</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.81219699424912</v>
+        <v>9.460456615456533</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.54488639140207</v>
+        <v>11.20177728631329</v>
       </c>
       <c r="O15">
-        <v>18.63989652995908</v>
+        <v>14.31584859517644</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.60403087994295</v>
+        <v>25.79190663665317</v>
       </c>
       <c r="C16">
-        <v>12.54969258399096</v>
+        <v>11.7571372320558</v>
       </c>
       <c r="D16">
-        <v>4.341935264314492</v>
+        <v>4.823486706724922</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.22693906693506</v>
+        <v>19.43289727803653</v>
       </c>
       <c r="G16">
-        <v>23.77893186126757</v>
+        <v>24.92399757641494</v>
       </c>
       <c r="H16">
-        <v>12.6484515972286</v>
+        <v>8.054640204624</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.7801106243763</v>
+        <v>9.241307359305011</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.56861342934671</v>
+        <v>11.26240454329131</v>
       </c>
       <c r="O16">
-        <v>18.64285218986563</v>
+        <v>14.08159672326387</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.37232513401253</v>
+        <v>25.25588863986204</v>
       </c>
       <c r="C17">
-        <v>12.52459292808516</v>
+        <v>11.6699427128722</v>
       </c>
       <c r="D17">
-        <v>4.314983067856137</v>
+        <v>4.753877671638084</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.19401038396319</v>
+        <v>19.13844706511867</v>
       </c>
       <c r="G17">
-        <v>23.71270462764084</v>
+        <v>24.48551637351274</v>
       </c>
       <c r="H17">
-        <v>12.65919340050719</v>
+        <v>8.024158761921381</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.76095055456489</v>
+        <v>9.105939220029617</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.58364274635523</v>
+        <v>11.30080246673869</v>
       </c>
       <c r="O17">
-        <v>18.64602699195344</v>
+        <v>13.94080617084236</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.23764063726595</v>
+        <v>24.94270280945583</v>
       </c>
       <c r="C18">
-        <v>12.51018653214551</v>
+        <v>11.61958764911051</v>
       </c>
       <c r="D18">
-        <v>4.29935580381018</v>
+        <v>4.713347499780888</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.17570134542888</v>
+        <v>18.96916303869394</v>
       </c>
       <c r="G18">
-        <v>23.67547130414699</v>
+        <v>24.23310745675788</v>
       </c>
       <c r="H18">
-        <v>12.66561373511283</v>
+        <v>8.007362586350492</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.75012523142013</v>
+        <v>9.027757151261559</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.59246140173237</v>
+        <v>11.32332105501687</v>
       </c>
       <c r="O18">
-        <v>18.64835319017021</v>
+        <v>13.86090766238767</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.19179971661744</v>
+        <v>24.83582262450399</v>
       </c>
       <c r="C19">
-        <v>12.50531420765162</v>
+        <v>11.60250474419344</v>
       </c>
       <c r="D19">
-        <v>4.294043467835632</v>
+        <v>4.699540556563235</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.16961096129877</v>
+        <v>18.91186389879509</v>
       </c>
       <c r="G19">
-        <v>23.6630133402817</v>
+        <v>24.14761682446074</v>
       </c>
       <c r="H19">
-        <v>12.66782908113005</v>
+        <v>8.001800860799092</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.74649369542389</v>
+        <v>9.001232668319251</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.59547717978267</v>
+        <v>11.33101895787741</v>
       </c>
       <c r="O19">
-        <v>18.64922666972377</v>
+        <v>13.83404182165796</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.39713776443723</v>
+        <v>25.31345344302772</v>
       </c>
       <c r="C20">
-        <v>12.52726175343428</v>
+        <v>11.67924605195655</v>
       </c>
       <c r="D20">
-        <v>4.317865183342387</v>
+        <v>4.761338809211633</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.1974505285827</v>
+        <v>19.16978498100065</v>
       </c>
       <c r="G20">
-        <v>23.71966600675216</v>
+        <v>24.53221619783572</v>
       </c>
       <c r="H20">
-        <v>12.65802487298349</v>
+        <v>8.027327105806492</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.76297004646192</v>
+        <v>9.120383150374574</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.58202482560882</v>
+        <v>11.29666990201587</v>
       </c>
       <c r="O20">
-        <v>18.64563725990671</v>
+        <v>13.95568194104166</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.06989903162643</v>
+        <v>26.86006366934038</v>
       </c>
       <c r="C21">
-        <v>12.60134654475782</v>
+        <v>11.93456364614909</v>
       </c>
       <c r="D21">
-        <v>4.396389095708286</v>
+        <v>4.963047173435468</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.29848975176329</v>
+        <v>20.03696291770244</v>
       </c>
       <c r="G21">
-        <v>23.92018816956091</v>
+        <v>25.82154435567794</v>
       </c>
       <c r="H21">
-        <v>12.62797616469365</v>
+        <v>8.121973372522243</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.82064092824552</v>
+        <v>9.516735733956228</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.53890680792134</v>
+        <v>11.18650530918382</v>
       </c>
       <c r="O21">
-        <v>18.6395545316341</v>
+        <v>14.37722164981458</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.49624835307193</v>
+        <v>27.82790716414498</v>
       </c>
       <c r="C22">
-        <v>12.64998156090708</v>
+        <v>12.09933357922821</v>
       </c>
       <c r="D22">
-        <v>4.446537325058643</v>
+        <v>5.090382265438858</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.37003738123851</v>
+        <v>20.60350167206756</v>
       </c>
       <c r="G22">
-        <v>24.058627723144</v>
+        <v>26.66120000135964</v>
       </c>
       <c r="H22">
-        <v>12.61049642187858</v>
+        <v>8.190647643318218</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.86001446496953</v>
+        <v>9.772533869002766</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.5122744165287</v>
+        <v>11.11857706193692</v>
       </c>
       <c r="O22">
-        <v>18.64003662629442</v>
+        <v>14.66214974415345</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.26995170788683</v>
+        <v>27.31525556615129</v>
       </c>
       <c r="C23">
-        <v>12.624006926606</v>
+        <v>12.01159780714446</v>
       </c>
       <c r="D23">
-        <v>4.419882194434817</v>
+        <v>5.022836684933838</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.33135198938579</v>
+        <v>20.30118704412881</v>
       </c>
       <c r="G23">
-        <v>23.98407727460434</v>
+        <v>26.21338198992196</v>
       </c>
       <c r="H23">
-        <v>12.6196279556723</v>
+        <v>8.153358745615808</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.83884886274504</v>
+        <v>9.636322227758967</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.52634717003002</v>
+        <v>11.15444824717866</v>
       </c>
       <c r="O23">
-        <v>18.63937138980362</v>
+        <v>14.50922499646867</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.38592455595202</v>
+        <v>25.28744404347631</v>
       </c>
       <c r="C24">
-        <v>12.52605510297888</v>
+        <v>11.6750407123422</v>
       </c>
       <c r="D24">
-        <v>4.316562589697749</v>
+        <v>4.757967219367599</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.19589330029786</v>
+        <v>19.15561710085094</v>
       </c>
       <c r="G24">
-        <v>23.71651614292567</v>
+        <v>24.51110419074779</v>
       </c>
       <c r="H24">
-        <v>12.65855240200381</v>
+        <v>8.025892432928238</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.76205644158107</v>
+        <v>9.113854157383333</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.58275573276018</v>
+        <v>11.29853685663195</v>
       </c>
       <c r="O24">
-        <v>18.64581189735037</v>
+        <v>13.94895335179858</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.37891983264817</v>
+        <v>22.91316282911245</v>
       </c>
       <c r="C25">
-        <v>12.42158568977704</v>
+        <v>11.30443781395594</v>
       </c>
       <c r="D25">
-        <v>4.200372302001971</v>
+        <v>4.453510717219141</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.07393427587497</v>
+        <v>17.92358262574867</v>
       </c>
       <c r="G25">
-        <v>23.46086379784549</v>
+        <v>22.66812804707578</v>
       </c>
       <c r="H25">
-        <v>12.70978502880779</v>
+        <v>7.916355974044273</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.6867077095683</v>
+        <v>8.538306198676946</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.650263412098</v>
+        <v>11.47041834505276</v>
       </c>
       <c r="O25">
-        <v>18.67187198338943</v>
+        <v>13.38601308243969</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.00120684277377</v>
+        <v>11.57701500769316</v>
       </c>
       <c r="C2">
-        <v>11.02668125673933</v>
+        <v>7.469682509935871</v>
       </c>
       <c r="D2">
-        <v>4.213935564929829</v>
+        <v>8.926134704707716</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.02548954167142</v>
+        <v>21.36836562588257</v>
       </c>
       <c r="G2">
-        <v>21.31374122010508</v>
+        <v>21.39397991366212</v>
       </c>
       <c r="H2">
-        <v>7.858147375784428</v>
+        <v>2.166594965078863</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.563351038992183</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.948126366213614</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.67330920042274</v>
       </c>
       <c r="L2">
-        <v>8.106806265404886</v>
+        <v>7.685663487474893</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.69913165961905</v>
       </c>
       <c r="N2">
-        <v>11.61015174376177</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>13.00788652370388</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.54746803527475</v>
+      </c>
+      <c r="P2">
+        <v>12.6248127304555</v>
+      </c>
+      <c r="Q2">
+        <v>14.38645332214544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.60184666361894</v>
+        <v>10.85778608788871</v>
       </c>
       <c r="C3">
-        <v>10.83629263631699</v>
+        <v>7.126313726381071</v>
       </c>
       <c r="D3">
-        <v>4.042455758590815</v>
+        <v>8.536377582673376</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.42611038299703</v>
+        <v>21.05283524240744</v>
       </c>
       <c r="G3">
-        <v>20.40302633544876</v>
+        <v>21.15037883020009</v>
       </c>
       <c r="H3">
-        <v>7.831819929741514</v>
+        <v>2.351766319954878</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.680320690552693</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.977573730545583</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.7556131532613</v>
       </c>
       <c r="L3">
-        <v>7.811207875704911</v>
+        <v>7.521610871628692</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.13594818221206</v>
       </c>
       <c r="N3">
-        <v>11.71264524250447</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.77451923807308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>11.96322588995781</v>
+      </c>
+      <c r="P3">
+        <v>12.7425565990737</v>
+      </c>
+      <c r="Q3">
+        <v>14.37439947011436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.69106987325718</v>
+        <v>10.38818958043127</v>
       </c>
       <c r="C4">
-        <v>10.71865164257463</v>
+        <v>6.909193048319706</v>
       </c>
       <c r="D4">
-        <v>3.9328788560588</v>
+        <v>8.28908760141727</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.06402669558166</v>
+        <v>20.86288403211563</v>
       </c>
       <c r="G4">
-        <v>19.84959217951035</v>
+        <v>21.00865487515438</v>
       </c>
       <c r="H4">
-        <v>7.821815098098319</v>
+        <v>2.469956343641257</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.755841025096145</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.998000669969073</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.80939199004467</v>
       </c>
       <c r="L4">
-        <v>7.628803812421937</v>
+        <v>7.418284309017226</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.772692705763227</v>
       </c>
       <c r="N4">
-        <v>11.77929678779754</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>12.64251560505088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.59029787756614</v>
+      </c>
+      <c r="P4">
+        <v>12.81658399410641</v>
+      </c>
+      <c r="Q4">
+        <v>14.37185076833167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.30689069773932</v>
+        <v>10.18506614139488</v>
       </c>
       <c r="C5">
-        <v>10.67057565734456</v>
+        <v>6.826646759658537</v>
       </c>
       <c r="D5">
-        <v>3.887184484879979</v>
+        <v>8.187775368371419</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.91818671056162</v>
+        <v>20.78167670082577</v>
       </c>
       <c r="G5">
-        <v>19.62587689704903</v>
+        <v>20.94454241829181</v>
       </c>
       <c r="H5">
-        <v>7.819239120058208</v>
+        <v>2.519413678875137</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.79053547482089</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.005617546352736</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.82861297708669</v>
       </c>
       <c r="L5">
-        <v>7.554354919263549</v>
+        <v>7.375351517207944</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.620460261843125</v>
       </c>
       <c r="N5">
-        <v>11.80737615079414</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>12.59155050789061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.43538794396107</v>
+      </c>
+      <c r="P5">
+        <v>12.84709478192277</v>
+      </c>
+      <c r="Q5">
+        <v>14.36870400211806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.24230920979532</v>
+        <v>10.14512314914729</v>
       </c>
       <c r="C6">
-        <v>10.66258593211021</v>
+        <v>6.821988644178785</v>
       </c>
       <c r="D6">
-        <v>3.879535296773241</v>
+        <v>8.172497178213863</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>15.8940800246606</v>
+        <v>20.76236946362583</v>
       </c>
       <c r="G6">
-        <v>19.58884991897709</v>
+        <v>20.92382006680904</v>
       </c>
       <c r="H6">
-        <v>7.818900606244116</v>
+        <v>2.527881139493435</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.800203626816694</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.005343876030196</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.82758263214445</v>
       </c>
       <c r="L6">
-        <v>7.541989011044671</v>
+        <v>7.367941881050312</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.595052761136429</v>
       </c>
       <c r="N6">
-        <v>11.81209369917842</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>12.58325804097171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.41004688112289</v>
+      </c>
+      <c r="P6">
+        <v>12.85207479455392</v>
+      </c>
+      <c r="Q6">
+        <v>14.3642155297544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.68594154118158</v>
+        <v>10.37001480112013</v>
       </c>
       <c r="C7">
-        <v>10.71800375784449</v>
+        <v>6.932668588860855</v>
       </c>
       <c r="D7">
-        <v>3.93226676716327</v>
+        <v>8.292180627985699</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.06205261996836</v>
+        <v>20.84580640593393</v>
       </c>
       <c r="G7">
-        <v>19.84656722878577</v>
+        <v>20.98005439113405</v>
       </c>
       <c r="H7">
-        <v>7.821774344405238</v>
+        <v>2.471116944588901</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.766480275128238</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.993813203842196</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.79799205902718</v>
       </c>
       <c r="L7">
-        <v>7.627800093564882</v>
+        <v>7.417054075054823</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.771003492027793</v>
       </c>
       <c r="N7">
-        <v>11.7796717792043</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>12.64181684551057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.58978545807066</v>
+      </c>
+      <c r="P7">
+        <v>12.81673271513212</v>
+      </c>
+      <c r="Q7">
+        <v>14.36080004059572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52937029819356</v>
+        <v>11.31586479472208</v>
       </c>
       <c r="C8">
-        <v>10.96121887255804</v>
+        <v>7.383535632412586</v>
       </c>
       <c r="D8">
-        <v>4.155719938346661</v>
+        <v>8.799051427923189</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.81772005673885</v>
+        <v>21.23814098752545</v>
       </c>
       <c r="G8">
-        <v>20.99874604025253</v>
+        <v>21.27228902664585</v>
       </c>
       <c r="H8">
-        <v>7.847762770511098</v>
+        <v>2.230135528066595</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.615939001808331</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.952149497449158</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.68562232787201</v>
       </c>
       <c r="L8">
-        <v>8.005134944435831</v>
+        <v>7.628838034458398</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.50905746594905</v>
       </c>
       <c r="N8">
-        <v>11.64470861688661</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.9250765596758</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.35099777734481</v>
+      </c>
+      <c r="P8">
+        <v>12.66491648283695</v>
+      </c>
+      <c r="Q8">
+        <v>14.36682757307273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.73818947376733</v>
+        <v>12.9732067060788</v>
       </c>
       <c r="C9">
-        <v>11.43014860856636</v>
+        <v>8.174863698479587</v>
       </c>
       <c r="D9">
-        <v>4.558516040125314</v>
+        <v>9.718102776704725</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.3376282074449</v>
+        <v>22.06268828542568</v>
       </c>
       <c r="G9">
-        <v>23.28918161279948</v>
+        <v>21.95580811483757</v>
       </c>
       <c r="H9">
-        <v>7.94965567062159</v>
+        <v>1.791877050185093</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.619317378522862</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.897185591629082</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.51254127321636</v>
       </c>
       <c r="L9">
-        <v>8.733574991286192</v>
+        <v>8.023541460781885</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.8144589616169</v>
       </c>
       <c r="N9">
-        <v>11.41041159765731</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>13.57003511735087</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.72283476042807</v>
+      </c>
+      <c r="P9">
+        <v>12.38086660934187</v>
+      </c>
+      <c r="Q9">
+        <v>14.43787096243842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.85241018285752</v>
+        <v>14.04706411084845</v>
       </c>
       <c r="C10">
-        <v>11.7670582081408</v>
+        <v>8.716650652599911</v>
       </c>
       <c r="D10">
-        <v>4.831362402581317</v>
+        <v>10.22894381176778</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.46650307839734</v>
+        <v>22.53730824972572</v>
       </c>
       <c r="G10">
-        <v>24.9739989524561</v>
+        <v>22.36407563324623</v>
       </c>
       <c r="H10">
-        <v>8.058218998937864</v>
+        <v>1.620124941265227</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.80658238354453</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.84869794512486</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.36562674493329</v>
       </c>
       <c r="L10">
-        <v>9.25670878326271</v>
+        <v>8.185271069194137</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.67736568450407</v>
       </c>
       <c r="N10">
-        <v>11.25808245694884</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.09780766036184</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.5079771983641</v>
+      </c>
+      <c r="P10">
+        <v>12.18313012624056</v>
+      </c>
+      <c r="Q10">
+        <v>14.46280132785783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.7623574331577</v>
+        <v>14.46839921790716</v>
       </c>
       <c r="C11">
-        <v>11.9181371710633</v>
+        <v>8.848953566456377</v>
       </c>
       <c r="D11">
-        <v>4.950237153686833</v>
+        <v>9.428101216200085</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.98077068128581</v>
+        <v>21.54994085297972</v>
       </c>
       <c r="G11">
-        <v>25.73815624561962</v>
+        <v>21.49398126303866</v>
       </c>
       <c r="H11">
-        <v>8.115447090162869</v>
+        <v>2.651977713282768</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.869429953659775</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.662212719629933</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.0145595885921</v>
       </c>
       <c r="L11">
-        <v>9.491236233184603</v>
+        <v>7.361521264490353</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.98838470717113</v>
       </c>
       <c r="N11">
-        <v>11.19341006058506</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.34935394793319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>13.60659265050332</v>
+      </c>
+      <c r="P11">
+        <v>12.12894671766626</v>
+      </c>
+      <c r="Q11">
+        <v>14.04699523198024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.09955874832682</v>
+        <v>14.62551314306619</v>
       </c>
       <c r="C12">
-        <v>11.9749911599445</v>
+        <v>8.818107538084725</v>
       </c>
       <c r="D12">
-        <v>4.994482513164537</v>
+        <v>8.63900260176899</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.17548410694763</v>
+        <v>20.62964634772733</v>
       </c>
       <c r="G12">
-        <v>26.02702135590139</v>
+        <v>20.69689181158836</v>
       </c>
       <c r="H12">
-        <v>8.13828490253737</v>
+        <v>4.088513357565506</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.880194516893435</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.518738347662911</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.76633192500654</v>
       </c>
       <c r="L12">
-        <v>9.579493874308961</v>
+        <v>6.771869078318415</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.07498168816948</v>
       </c>
       <c r="N12">
-        <v>11.16961559635304</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.44622870668089</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>12.67298422998291</v>
+      </c>
+      <c r="P12">
+        <v>12.13315424021198</v>
+      </c>
+      <c r="Q12">
+        <v>13.70072788535003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.02726322284043</v>
+        <v>14.57612741806828</v>
       </c>
       <c r="C13">
-        <v>11.96276313304016</v>
+        <v>8.690528298087347</v>
       </c>
       <c r="D13">
-        <v>4.984987945362628</v>
+        <v>7.801330478473751</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.13355224915443</v>
+        <v>19.67535285361604</v>
       </c>
       <c r="G13">
-        <v>25.96483391818327</v>
+        <v>19.85871042643144</v>
       </c>
       <c r="H13">
-        <v>8.133313879474574</v>
+        <v>5.537308749652723</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.856756404911778</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.393082062583023</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.56475553352809</v>
       </c>
       <c r="L13">
-        <v>9.560511391915105</v>
+        <v>6.357923498940727</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.99731657434977</v>
       </c>
       <c r="N13">
-        <v>11.17470870328379</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>14.42529341447072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.63804021359895</v>
+      </c>
+      <c r="P13">
+        <v>12.17977505063871</v>
+      </c>
+      <c r="Q13">
+        <v>13.36945876131727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.79024656942325</v>
+        <v>14.44404471177994</v>
       </c>
       <c r="C14">
-        <v>11.92282195851257</v>
+        <v>8.562428349158829</v>
       </c>
       <c r="D14">
-        <v>4.953892756203591</v>
+        <v>7.190759634680119</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.99679113147624</v>
+        <v>18.98945748180301</v>
       </c>
       <c r="G14">
-        <v>25.76193233628459</v>
+        <v>19.24580625047208</v>
       </c>
       <c r="H14">
-        <v>8.117302370785005</v>
+        <v>6.556392018790729</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.82621170321614</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.312661207746979</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.44351974197104</v>
       </c>
       <c r="L14">
-        <v>9.498508609837833</v>
+        <v>6.190655134407929</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.86789869448736</v>
       </c>
       <c r="N14">
-        <v>11.19143834883683</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>14.35729159628593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.85928996875386</v>
+      </c>
+      <c r="P14">
+        <v>12.23174477016542</v>
+      </c>
+      <c r="Q14">
+        <v>13.14280766886565</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.64410875536893</v>
+        <v>14.36227221791616</v>
       </c>
       <c r="C15">
-        <v>11.89830921410207</v>
+        <v>8.518025777062881</v>
       </c>
       <c r="D15">
-        <v>4.934745370997017</v>
+        <v>7.032060102826712</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.91301368655352</v>
+        <v>18.81197140298799</v>
       </c>
       <c r="G15">
-        <v>25.63757897298079</v>
+        <v>19.08089013597798</v>
       </c>
       <c r="H15">
-        <v>8.107647930288852</v>
+        <v>6.792798253214007</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.812884972613285</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.29598655821362</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.42070021349135</v>
       </c>
       <c r="L15">
-        <v>9.460456615456533</v>
+        <v>6.167202046166238</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.80078839385965</v>
       </c>
       <c r="N15">
-        <v>11.20177728631329</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>14.31584859517644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.6474106825909</v>
+      </c>
+      <c r="P15">
+        <v>12.25251645068242</v>
+      </c>
+      <c r="Q15">
+        <v>13.08838225140835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.79190663665317</v>
+        <v>13.92416619340767</v>
       </c>
       <c r="C16">
-        <v>11.7571372320558</v>
+        <v>8.325423934141575</v>
       </c>
       <c r="D16">
-        <v>4.823486706724922</v>
+        <v>6.94456030667521</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.43289727803653</v>
+        <v>18.77811269973589</v>
       </c>
       <c r="G16">
-        <v>24.92399757641494</v>
+        <v>19.0410265926952</v>
       </c>
       <c r="H16">
-        <v>8.054640204624</v>
+        <v>6.58778945351965</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.740674602680844</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.339423700774114</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.51863188787449</v>
       </c>
       <c r="L16">
-        <v>9.241307359305011</v>
+        <v>6.169187147538252</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.45813611365269</v>
       </c>
       <c r="N16">
-        <v>11.26240454329131</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>14.08159672326387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.46893873584656</v>
+      </c>
+      <c r="P16">
+        <v>12.31949192624694</v>
+      </c>
+      <c r="Q16">
+        <v>13.13646156299091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25588863986204</v>
+        <v>13.65336803130501</v>
       </c>
       <c r="C17">
-        <v>11.6699427128722</v>
+        <v>8.247009686198265</v>
       </c>
       <c r="D17">
-        <v>4.753877671638084</v>
+        <v>7.210264545398324</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.13844706511867</v>
+        <v>19.11910772378359</v>
       </c>
       <c r="G17">
-        <v>24.48551637351274</v>
+        <v>19.34051007790269</v>
       </c>
       <c r="H17">
-        <v>8.024158761921381</v>
+        <v>5.85717622852976</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.701576316069711</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.415499640933918</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.65724195034058</v>
       </c>
       <c r="L17">
-        <v>9.105939220029617</v>
+        <v>6.239035845405335</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.26183100535522</v>
       </c>
       <c r="N17">
-        <v>11.30080246673869</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>13.94080617084236</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.75956809876809</v>
+      </c>
+      <c r="P17">
+        <v>12.3445296091604</v>
+      </c>
+      <c r="Q17">
+        <v>13.29399652232746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.94270280945583</v>
+        <v>13.51358305820535</v>
       </c>
       <c r="C18">
-        <v>11.61958764911051</v>
+        <v>8.243099531404104</v>
       </c>
       <c r="D18">
-        <v>4.713347499780888</v>
+        <v>7.817766430390094</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>18.96916303869394</v>
+        <v>19.83463600192398</v>
       </c>
       <c r="G18">
-        <v>24.23310745675788</v>
+        <v>19.98157406036511</v>
       </c>
       <c r="H18">
-        <v>8.007362586350492</v>
+        <v>4.614773572810192</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.68339311662626</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.530655286063404</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.85568406011164</v>
       </c>
       <c r="L18">
-        <v>9.027757151261559</v>
+        <v>6.488475071495449</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.17396529721347</v>
       </c>
       <c r="N18">
-        <v>11.32332105501687</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.86090766238767</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.49203690025564</v>
+      </c>
+      <c r="P18">
+        <v>12.33894907483391</v>
+      </c>
+      <c r="Q18">
+        <v>13.5700330264052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.83582262450399</v>
+        <v>13.46917648546398</v>
       </c>
       <c r="C19">
-        <v>11.60250474419344</v>
+        <v>8.340091248786836</v>
       </c>
       <c r="D19">
-        <v>4.699540556563235</v>
+        <v>8.666993713735424</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>18.91186389879509</v>
+        <v>20.77889774887323</v>
       </c>
       <c r="G19">
-        <v>24.14761682446074</v>
+        <v>20.8018932033493</v>
       </c>
       <c r="H19">
-        <v>8.001800860799092</v>
+        <v>3.144680399984574</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.694558755199322</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.661857298775754</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>13.07221751152167</v>
       </c>
       <c r="L19">
-        <v>9.001232668319251</v>
+        <v>7.007277733498158</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.18237045432554</v>
       </c>
       <c r="N19">
-        <v>11.33101895787741</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.83404182165796</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>12.52448961511349</v>
+      </c>
+      <c r="P19">
+        <v>12.31607471082284</v>
+      </c>
+      <c r="Q19">
+        <v>13.90347281120336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.31345344302772</v>
+        <v>13.73641123558625</v>
       </c>
       <c r="C20">
-        <v>11.67924605195655</v>
+        <v>8.640277829882772</v>
       </c>
       <c r="D20">
-        <v>4.761338809211633</v>
+        <v>10.10329595340833</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.16978498100065</v>
+        <v>22.36000361657414</v>
       </c>
       <c r="G20">
-        <v>24.53221619783572</v>
+        <v>22.16862115285691</v>
       </c>
       <c r="H20">
-        <v>8.027327105806492</v>
+        <v>1.596758354856168</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.769633420950129</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.846722146026645</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.3657833061331</v>
       </c>
       <c r="L20">
-        <v>9.120383150374574</v>
+        <v>8.136650266928021</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.45743855298942</v>
       </c>
       <c r="N20">
-        <v>11.29666990201587</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>13.95568194104166</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.30359978522104</v>
+      </c>
+      <c r="P20">
+        <v>12.23536664948852</v>
+      </c>
+      <c r="Q20">
+        <v>14.41919599255405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.86006366934038</v>
+        <v>14.53169307060877</v>
       </c>
       <c r="C21">
-        <v>11.93456364614909</v>
+        <v>9.053667005416161</v>
       </c>
       <c r="D21">
-        <v>4.963047173435468</v>
+        <v>10.66418062949747</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.03696291770244</v>
+        <v>22.9506157696041</v>
       </c>
       <c r="G21">
-        <v>25.82154435567794</v>
+        <v>22.69514390630414</v>
       </c>
       <c r="H21">
-        <v>8.121973372522243</v>
+        <v>1.771296101285853</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.912938800427438</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.845040730517779</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.31498376151466</v>
       </c>
       <c r="L21">
-        <v>9.516735733956228</v>
+        <v>8.432507542592111</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.10216414488866</v>
       </c>
       <c r="N21">
-        <v>11.18650530918382</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>14.37722164981458</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.104906919992</v>
+      </c>
+      <c r="P21">
+        <v>12.08196417192497</v>
+      </c>
+      <c r="Q21">
+        <v>14.5284788023528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.82790716414498</v>
+        <v>15.04001771852134</v>
       </c>
       <c r="C22">
-        <v>12.09933357922821</v>
+        <v>9.28420072881797</v>
       </c>
       <c r="D22">
-        <v>5.090382265438858</v>
+        <v>10.95490127691964</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.60350167206756</v>
+        <v>23.28600005559879</v>
       </c>
       <c r="G22">
-        <v>26.66120000135964</v>
+        <v>23.01733519609695</v>
       </c>
       <c r="H22">
-        <v>8.190647643318218</v>
+        <v>1.911901481675439</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.998882181765721</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.842444303468618</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.2843462886937</v>
       </c>
       <c r="L22">
-        <v>9.772533869002766</v>
+        <v>8.565249226482765</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.5027548303707</v>
       </c>
       <c r="N22">
-        <v>11.11857706193692</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.66214974415345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.53677253435233</v>
+      </c>
+      <c r="P22">
+        <v>11.98399438592295</v>
+      </c>
+      <c r="Q22">
+        <v>14.59425394085014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.31525556615129</v>
+        <v>14.78432719817338</v>
       </c>
       <c r="C23">
-        <v>12.01159780714446</v>
+        <v>9.138566739719758</v>
       </c>
       <c r="D23">
-        <v>5.022836684933838</v>
+        <v>10.7964561600083</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.30118704412881</v>
+        <v>23.12369749572373</v>
       </c>
       <c r="G23">
-        <v>26.21338198992196</v>
+        <v>22.87446616000031</v>
       </c>
       <c r="H23">
-        <v>8.153358745615808</v>
+        <v>1.837612873202406</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.948692265511418</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.848518615619705</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.31396508309783</v>
       </c>
       <c r="L23">
-        <v>9.636322227758967</v>
+        <v>8.495276878461343</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.29013738491543</v>
       </c>
       <c r="N23">
-        <v>11.15444824717866</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.50922499646867</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.30630171598429</v>
+      </c>
+      <c r="P23">
+        <v>12.03574218874647</v>
+      </c>
+      <c r="Q23">
+        <v>14.57109314836439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.28744404347631</v>
+        <v>13.74676925563568</v>
       </c>
       <c r="C24">
-        <v>11.6750407123422</v>
+        <v>8.609080541721299</v>
       </c>
       <c r="D24">
-        <v>4.757967219367599</v>
+        <v>10.18395151354343</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.15561710085094</v>
+        <v>22.48601193806606</v>
       </c>
       <c r="G24">
-        <v>24.51110419074779</v>
+        <v>22.30076080064689</v>
       </c>
       <c r="H24">
-        <v>8.025892432928238</v>
+        <v>1.572720721846375</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.762119875688341</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.868969387361378</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.41224587506814</v>
       </c>
       <c r="L24">
-        <v>9.113854157383333</v>
+        <v>8.223398986622364</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.45200973185996</v>
       </c>
       <c r="N24">
-        <v>11.29853685663195</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>13.94895335179858</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.40452409992633</v>
+      </c>
+      <c r="P24">
+        <v>12.23524218694912</v>
+      </c>
+      <c r="Q24">
+        <v>14.47471570705225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.91316282911245</v>
+        <v>12.5251415387165</v>
       </c>
       <c r="C25">
-        <v>11.30443781395594</v>
+        <v>8.006030417649402</v>
       </c>
       <c r="D25">
-        <v>4.453510717219141</v>
+        <v>9.484331655835874</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>17.92358262574867</v>
+        <v>21.80973715052573</v>
       </c>
       <c r="G25">
-        <v>22.66812804707578</v>
+        <v>21.71640501275039</v>
       </c>
       <c r="H25">
-        <v>7.916355974044273</v>
+        <v>1.907535665604009</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.554346474810952</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.902294134946981</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.53548900374426</v>
       </c>
       <c r="L25">
-        <v>8.538306198676946</v>
+        <v>7.918198564347269</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.47734966298995</v>
       </c>
       <c r="N25">
-        <v>11.47041834505276</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.38601308243969</v>
+        <v>13.36752820962756</v>
+      </c>
+      <c r="P25">
+        <v>12.45645186404065</v>
+      </c>
+      <c r="Q25">
+        <v>14.39472897666692</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_53/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.57701500769316</v>
+        <v>11.45675610738491</v>
       </c>
       <c r="C2">
-        <v>7.469682509935871</v>
+        <v>7.552730324271923</v>
       </c>
       <c r="D2">
-        <v>8.926134704707716</v>
+        <v>9.006978549666462</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.36836562588257</v>
+        <v>21.0835435869766</v>
       </c>
       <c r="G2">
-        <v>21.39397991366212</v>
+        <v>20.29821106826756</v>
       </c>
       <c r="H2">
-        <v>2.166594965078863</v>
+        <v>2.145141958488805</v>
       </c>
       <c r="I2">
-        <v>2.563351038992183</v>
+        <v>2.489760960567238</v>
       </c>
       <c r="J2">
-        <v>8.948126366213614</v>
+        <v>9.231434245947653</v>
       </c>
       <c r="K2">
-        <v>13.67330920042274</v>
+        <v>13.32223268012029</v>
       </c>
       <c r="L2">
-        <v>7.685663487474893</v>
+        <v>11.4880370500503</v>
       </c>
       <c r="M2">
-        <v>10.69913165961905</v>
+        <v>8.204725847581255</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.693613937026063</v>
       </c>
       <c r="O2">
-        <v>12.54746803527475</v>
+        <v>10.70856627938746</v>
       </c>
       <c r="P2">
-        <v>12.6248127304555</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.38645332214544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.58155764312498</v>
+      </c>
+      <c r="R2">
+        <v>12.55723741523184</v>
+      </c>
+      <c r="S2">
+        <v>14.15434709124655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.85778608788871</v>
+        <v>10.78339800631592</v>
       </c>
       <c r="C3">
-        <v>7.126313726381071</v>
+        <v>7.122181042899757</v>
       </c>
       <c r="D3">
-        <v>8.536377582673376</v>
+        <v>8.611371006756983</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.05283524240744</v>
+        <v>20.79844699621579</v>
       </c>
       <c r="G3">
-        <v>21.15037883020009</v>
+        <v>20.12858672135703</v>
       </c>
       <c r="H3">
-        <v>2.351766319954878</v>
+        <v>2.324761064989474</v>
       </c>
       <c r="I3">
-        <v>2.680320690552693</v>
+        <v>2.594027959590205</v>
       </c>
       <c r="J3">
-        <v>8.977573730545583</v>
+        <v>9.238846229197756</v>
       </c>
       <c r="K3">
-        <v>13.7556131532613</v>
+        <v>13.41788069620462</v>
       </c>
       <c r="L3">
-        <v>7.521610871628692</v>
+        <v>11.63832772940685</v>
       </c>
       <c r="M3">
-        <v>10.13594818221206</v>
+        <v>8.227923629261594</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.534544880693033</v>
       </c>
       <c r="O3">
-        <v>11.96322588995781</v>
+        <v>10.14737659039742</v>
       </c>
       <c r="P3">
-        <v>12.7425565990737</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.37439947011436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.99478699408826</v>
+      </c>
+      <c r="R3">
+        <v>12.66537325724875</v>
+      </c>
+      <c r="S3">
+        <v>14.15939268579864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.38818958043127</v>
+        <v>10.34392146977152</v>
       </c>
       <c r="C4">
-        <v>6.909193048319706</v>
+        <v>6.848787321982977</v>
       </c>
       <c r="D4">
-        <v>8.28908760141727</v>
+        <v>8.360645713238235</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.86288403211563</v>
+        <v>20.62645246633206</v>
       </c>
       <c r="G4">
-        <v>21.00865487515438</v>
+        <v>20.03355356722892</v>
       </c>
       <c r="H4">
-        <v>2.469956343641257</v>
+        <v>2.439437210480995</v>
       </c>
       <c r="I4">
-        <v>2.755841025096145</v>
+        <v>2.661695357751956</v>
       </c>
       <c r="J4">
-        <v>8.998000669969073</v>
+        <v>9.24434680822657</v>
       </c>
       <c r="K4">
-        <v>13.80939199004467</v>
+        <v>13.47889563867419</v>
       </c>
       <c r="L4">
-        <v>7.418284309017226</v>
+        <v>11.73382291155734</v>
       </c>
       <c r="M4">
-        <v>9.772692705763227</v>
+        <v>8.259672479384937</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.434435334274482</v>
       </c>
       <c r="O4">
-        <v>11.59029787756614</v>
+        <v>9.785468286986486</v>
       </c>
       <c r="P4">
-        <v>12.81658399410641</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.37185076833167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.62023498810985</v>
+      </c>
+      <c r="R4">
+        <v>12.73365240289126</v>
+      </c>
+      <c r="S4">
+        <v>14.16647984213705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.18506614139488</v>
+        <v>10.1535944224782</v>
       </c>
       <c r="C5">
-        <v>6.826646759658537</v>
+        <v>6.743298874853938</v>
       </c>
       <c r="D5">
-        <v>8.187775368371419</v>
+        <v>8.257994171665517</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.78167670082577</v>
+        <v>20.55233056108868</v>
       </c>
       <c r="G5">
-        <v>20.94454241829181</v>
+        <v>19.98859967683962</v>
       </c>
       <c r="H5">
-        <v>2.519413678875137</v>
+        <v>2.487431739513595</v>
       </c>
       <c r="I5">
-        <v>2.79053547482089</v>
+        <v>2.693706903726532</v>
       </c>
       <c r="J5">
-        <v>9.005617546352736</v>
+        <v>9.245506924930146</v>
       </c>
       <c r="K5">
-        <v>13.82861297708669</v>
+        <v>13.50087163504746</v>
       </c>
       <c r="L5">
-        <v>7.375351517207944</v>
+        <v>11.77008476863023</v>
       </c>
       <c r="M5">
-        <v>9.620460261843125</v>
+        <v>8.275320183729965</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.392854801826661</v>
       </c>
       <c r="O5">
-        <v>11.43538794396107</v>
+        <v>9.633825317379104</v>
       </c>
       <c r="P5">
-        <v>12.84709478192277</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.36870400211806</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.46465234098616</v>
+      </c>
+      <c r="R5">
+        <v>12.76189442229912</v>
+      </c>
+      <c r="S5">
+        <v>14.167034292712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.14512314914729</v>
+        <v>10.11583268064541</v>
       </c>
       <c r="C6">
-        <v>6.821988644178785</v>
+        <v>6.735588088458008</v>
       </c>
       <c r="D6">
-        <v>8.172497178213863</v>
+        <v>8.242511285019297</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.76236946362583</v>
+        <v>20.53414774809668</v>
       </c>
       <c r="G6">
-        <v>20.92382006680904</v>
+        <v>19.97090861732289</v>
       </c>
       <c r="H6">
-        <v>2.527881139493435</v>
+        <v>2.495649944522669</v>
       </c>
       <c r="I6">
-        <v>2.800203626816694</v>
+        <v>2.703629523871341</v>
       </c>
       <c r="J6">
-        <v>9.005343876030196</v>
+        <v>9.244102619023288</v>
       </c>
       <c r="K6">
-        <v>13.82758263214445</v>
+        <v>13.50033665355851</v>
       </c>
       <c r="L6">
-        <v>7.367941881050312</v>
+        <v>11.7719316101159</v>
       </c>
       <c r="M6">
-        <v>9.595052761136429</v>
+        <v>8.27614849824843</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.385675057774618</v>
       </c>
       <c r="O6">
-        <v>11.41004688112289</v>
+        <v>9.608524767184146</v>
       </c>
       <c r="P6">
-        <v>12.85207479455392</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.3642155297544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.43920344646933</v>
+      </c>
+      <c r="R6">
+        <v>12.76654749655659</v>
+      </c>
+      <c r="S6">
+        <v>14.16313692933086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.37001480112013</v>
+        <v>10.323541132696</v>
       </c>
       <c r="C7">
-        <v>6.932668588860855</v>
+        <v>6.86837091520589</v>
       </c>
       <c r="D7">
-        <v>8.292180627985699</v>
+        <v>8.367068071903498</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.84580640593393</v>
+        <v>20.59935776882183</v>
       </c>
       <c r="G7">
-        <v>20.98005439113405</v>
+        <v>20.07998087971085</v>
       </c>
       <c r="H7">
-        <v>2.471116944588901</v>
+        <v>2.440944704212646</v>
       </c>
       <c r="I7">
-        <v>2.766480275128238</v>
+        <v>2.674561370372483</v>
       </c>
       <c r="J7">
-        <v>8.993813203842196</v>
+        <v>9.2100332192491</v>
       </c>
       <c r="K7">
-        <v>13.79799205902718</v>
+        <v>13.46375723999081</v>
       </c>
       <c r="L7">
-        <v>7.417054075054823</v>
+        <v>11.71924578494033</v>
       </c>
       <c r="M7">
-        <v>9.771003492027793</v>
+        <v>8.251879854305335</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.43311409461676</v>
       </c>
       <c r="O7">
-        <v>11.58978545807066</v>
+        <v>9.780348380619925</v>
       </c>
       <c r="P7">
-        <v>12.81673271513212</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.36080004059572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.61865827873187</v>
+      </c>
+      <c r="R7">
+        <v>12.73393768796494</v>
+      </c>
+      <c r="S7">
+        <v>14.14856822930034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.31586479472208</v>
+        <v>11.20355788057711</v>
       </c>
       <c r="C8">
-        <v>7.383535632412586</v>
+        <v>7.421801672625741</v>
       </c>
       <c r="D8">
-        <v>8.799051427923189</v>
+        <v>8.888373114343127</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.23814098752545</v>
+        <v>20.93126485350887</v>
       </c>
       <c r="G8">
-        <v>21.27228902664585</v>
+        <v>20.44976454328458</v>
       </c>
       <c r="H8">
-        <v>2.230135528066595</v>
+        <v>2.207939900361727</v>
       </c>
       <c r="I8">
-        <v>2.615939001808331</v>
+        <v>2.541631466378311</v>
       </c>
       <c r="J8">
-        <v>8.952149497449158</v>
+        <v>9.130620512618593</v>
       </c>
       <c r="K8">
-        <v>13.68562232787201</v>
+        <v>13.32677448527982</v>
       </c>
       <c r="L8">
-        <v>7.628838034458398</v>
+        <v>11.51438117923639</v>
       </c>
       <c r="M8">
-        <v>10.50905746594905</v>
+        <v>8.191255755993271</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.638170610575182</v>
       </c>
       <c r="O8">
-        <v>12.35099777734481</v>
+        <v>10.50840080117626</v>
       </c>
       <c r="P8">
-        <v>12.66491648283695</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.36682757307273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.38089063786548</v>
+      </c>
+      <c r="R8">
+        <v>12.59460623540965</v>
+      </c>
+      <c r="S8">
+        <v>14.11809096560753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.9732067060788</v>
+        <v>12.75582958795082</v>
       </c>
       <c r="C9">
-        <v>8.174863698479587</v>
+        <v>8.409374999834984</v>
       </c>
       <c r="D9">
-        <v>9.718102776704725</v>
+        <v>9.824278545509666</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.06268828542568</v>
+        <v>21.66919651628191</v>
       </c>
       <c r="G9">
-        <v>21.95580811483757</v>
+        <v>21.01912884913123</v>
       </c>
       <c r="H9">
-        <v>1.791877050185093</v>
+        <v>1.783176468147777</v>
       </c>
       <c r="I9">
-        <v>2.619317378522862</v>
+        <v>2.670719276239677</v>
       </c>
       <c r="J9">
-        <v>8.897185591629082</v>
+        <v>9.096215533802077</v>
       </c>
       <c r="K9">
-        <v>13.51254127321636</v>
+        <v>13.11126517219327</v>
       </c>
       <c r="L9">
-        <v>8.023541460781885</v>
+        <v>11.16954388580941</v>
       </c>
       <c r="M9">
-        <v>11.8144589616169</v>
+        <v>8.232915293120675</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.021351205983535</v>
       </c>
       <c r="O9">
-        <v>13.72283476042807</v>
+        <v>11.80770220428997</v>
       </c>
       <c r="P9">
-        <v>12.38086660934187</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.43787096243842</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.75795647102957</v>
+      </c>
+      <c r="R9">
+        <v>12.33597016333909</v>
+      </c>
+      <c r="S9">
+        <v>14.13574589350516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.04706411084845</v>
+        <v>13.75323004930488</v>
       </c>
       <c r="C10">
-        <v>8.716650652599911</v>
+        <v>9.049179403298654</v>
       </c>
       <c r="D10">
-        <v>10.22894381176778</v>
+        <v>10.36254425165581</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.53730824972572</v>
+        <v>22.02936055529829</v>
       </c>
       <c r="G10">
-        <v>22.36407563324623</v>
+        <v>21.77884511619543</v>
       </c>
       <c r="H10">
-        <v>1.620124941265227</v>
+        <v>1.61791779965447</v>
       </c>
       <c r="I10">
-        <v>2.80658238354453</v>
+        <v>2.837677737852917</v>
       </c>
       <c r="J10">
-        <v>8.84869794512486</v>
+        <v>8.896436577594981</v>
       </c>
       <c r="K10">
-        <v>13.36562674493329</v>
+        <v>12.91050073165114</v>
       </c>
       <c r="L10">
-        <v>8.185271069194137</v>
+        <v>10.89444895072394</v>
       </c>
       <c r="M10">
-        <v>12.67736568450407</v>
+        <v>8.299591588818117</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.175351961794727</v>
       </c>
       <c r="O10">
-        <v>14.5079771983641</v>
+        <v>12.65042869011513</v>
       </c>
       <c r="P10">
-        <v>12.18313012624056</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.46280132785783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.54104827607359</v>
+      </c>
+      <c r="R10">
+        <v>12.1611329851239</v>
+      </c>
+      <c r="S10">
+        <v>14.08187736843452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.46839921790716</v>
+        <v>14.14807816643081</v>
       </c>
       <c r="C11">
-        <v>8.848953566456377</v>
+        <v>9.131201872763812</v>
       </c>
       <c r="D11">
-        <v>9.428101216200085</v>
+        <v>9.591045143414032</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.54994085297972</v>
+        <v>20.94439390388226</v>
       </c>
       <c r="G11">
-        <v>21.49398126303866</v>
+        <v>21.83340557750572</v>
       </c>
       <c r="H11">
-        <v>2.651977713282768</v>
+        <v>2.656852419049089</v>
       </c>
       <c r="I11">
-        <v>2.869429953659775</v>
+        <v>2.893397683860471</v>
       </c>
       <c r="J11">
-        <v>8.662212719629933</v>
+        <v>8.44134855416476</v>
       </c>
       <c r="K11">
-        <v>13.0145595885921</v>
+        <v>12.54012824047598</v>
       </c>
       <c r="L11">
-        <v>7.361521264490353</v>
+        <v>10.59279006244935</v>
       </c>
       <c r="M11">
-        <v>12.98838470717113</v>
+        <v>8.085795825025116</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.349192362242703</v>
       </c>
       <c r="O11">
-        <v>13.60659265050332</v>
+        <v>12.92514125771111</v>
       </c>
       <c r="P11">
-        <v>12.12894671766626</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14.04699523198024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.62801084492824</v>
+      </c>
+      <c r="R11">
+        <v>12.13446287337268</v>
+      </c>
+      <c r="S11">
+        <v>13.59788736279252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.62551314306619</v>
+        <v>14.30510951115505</v>
       </c>
       <c r="C12">
-        <v>8.818107538084725</v>
+        <v>9.051987568152303</v>
       </c>
       <c r="D12">
-        <v>8.63900260176899</v>
+        <v>8.809715464091676</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.62964634772733</v>
+        <v>20.00322593534355</v>
       </c>
       <c r="G12">
-        <v>20.69689181158836</v>
+        <v>21.47564278831474</v>
       </c>
       <c r="H12">
-        <v>4.088513357565506</v>
+        <v>4.092533352984302</v>
       </c>
       <c r="I12">
-        <v>2.880194516893435</v>
+        <v>2.901438348966833</v>
       </c>
       <c r="J12">
-        <v>8.518738347662911</v>
+        <v>8.225570428524705</v>
       </c>
       <c r="K12">
-        <v>12.76633192500654</v>
+        <v>12.30295259225092</v>
       </c>
       <c r="L12">
-        <v>6.771869078318415</v>
+        <v>10.4248296079496</v>
       </c>
       <c r="M12">
-        <v>13.07498168816948</v>
+        <v>7.908845974172454</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.758792921157754</v>
       </c>
       <c r="O12">
-        <v>12.67298422998291</v>
+        <v>12.99480541127316</v>
       </c>
       <c r="P12">
-        <v>12.13315424021198</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.70072788535003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>12.68822281492682</v>
+      </c>
+      <c r="R12">
+        <v>12.15636872530786</v>
+      </c>
+      <c r="S12">
+        <v>13.23795759122778</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.57612741806828</v>
+        <v>14.28068168893323</v>
       </c>
       <c r="C13">
-        <v>8.690528298087347</v>
+        <v>8.886612585518918</v>
       </c>
       <c r="D13">
-        <v>7.801330478473751</v>
+        <v>7.957461814248623</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.67535285361604</v>
+        <v>19.10569210462468</v>
       </c>
       <c r="G13">
-        <v>19.85871042643144</v>
+        <v>20.53705104058897</v>
       </c>
       <c r="H13">
-        <v>5.537308749652723</v>
+        <v>5.539889803777227</v>
       </c>
       <c r="I13">
-        <v>2.856756404911778</v>
+        <v>2.880685749125698</v>
       </c>
       <c r="J13">
-        <v>8.393082062583023</v>
+        <v>8.177313568294418</v>
       </c>
       <c r="K13">
-        <v>12.56475553352809</v>
+        <v>12.14308553300103</v>
       </c>
       <c r="L13">
-        <v>6.357923498940727</v>
+        <v>10.33047014755423</v>
       </c>
       <c r="M13">
-        <v>12.99731657434977</v>
+        <v>7.745928163863641</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.34629111476765</v>
       </c>
       <c r="O13">
-        <v>11.63804021359895</v>
+        <v>12.9206855302599</v>
       </c>
       <c r="P13">
-        <v>12.17977505063871</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.36945876131727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.65280516244106</v>
+      </c>
+      <c r="R13">
+        <v>12.20958242769984</v>
+      </c>
+      <c r="S13">
+        <v>12.94844887971151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.44404471177994</v>
+        <v>14.17756925312339</v>
       </c>
       <c r="C14">
-        <v>8.562428349158829</v>
+        <v>8.736082767446367</v>
       </c>
       <c r="D14">
-        <v>7.190759634680119</v>
+        <v>7.327194419616413</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.98945748180301</v>
+        <v>18.49141627068378</v>
       </c>
       <c r="G14">
-        <v>19.24580625047208</v>
+        <v>19.62411363182067</v>
       </c>
       <c r="H14">
-        <v>6.556392018790729</v>
+        <v>6.557901512213013</v>
       </c>
       <c r="I14">
-        <v>2.82621170321614</v>
+        <v>2.854782086004549</v>
       </c>
       <c r="J14">
-        <v>8.312661207746979</v>
+        <v>8.204828274139459</v>
       </c>
       <c r="K14">
-        <v>12.44351974197104</v>
+        <v>12.0623982127844</v>
       </c>
       <c r="L14">
-        <v>6.190655134407929</v>
+        <v>10.29188062051077</v>
       </c>
       <c r="M14">
-        <v>12.86789869448736</v>
+        <v>7.638341594644837</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.181463718303091</v>
       </c>
       <c r="O14">
-        <v>10.85928996875386</v>
+        <v>12.80279418731136</v>
       </c>
       <c r="P14">
-        <v>12.23174477016542</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.14280766886565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.87607749958739</v>
+      </c>
+      <c r="R14">
+        <v>12.25993861198503</v>
+      </c>
+      <c r="S14">
+        <v>12.77328557001821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.36227221791616</v>
+        <v>14.10797315786171</v>
       </c>
       <c r="C15">
-        <v>8.518025777062881</v>
+        <v>8.687940647321636</v>
       </c>
       <c r="D15">
-        <v>7.032060102826712</v>
+        <v>7.159976883559342</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.81197140298799</v>
+        <v>18.34452600352171</v>
       </c>
       <c r="G15">
-        <v>19.08089013597798</v>
+        <v>19.29088613659999</v>
       </c>
       <c r="H15">
-        <v>6.792798253214007</v>
+        <v>6.793901796849365</v>
       </c>
       <c r="I15">
-        <v>2.812884972613285</v>
+        <v>2.844248594509314</v>
       </c>
       <c r="J15">
-        <v>8.29598655821362</v>
+        <v>8.23835920139569</v>
       </c>
       <c r="K15">
-        <v>12.42070021349135</v>
+        <v>12.05435036213142</v>
       </c>
       <c r="L15">
-        <v>6.167202046166238</v>
+        <v>10.29297995259619</v>
       </c>
       <c r="M15">
-        <v>12.80078839385965</v>
+        <v>7.613119856802044</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.159245509225824</v>
       </c>
       <c r="O15">
-        <v>10.6474106825909</v>
+        <v>12.74241770090501</v>
       </c>
       <c r="P15">
-        <v>12.25251645068242</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>13.08838225140835</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.66567561543635</v>
+      </c>
+      <c r="R15">
+        <v>12.27773571436027</v>
+      </c>
+      <c r="S15">
+        <v>12.74072014529538</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.92416619340767</v>
+        <v>13.71483611171555</v>
       </c>
       <c r="C16">
-        <v>8.325423934141575</v>
+        <v>8.501689485659881</v>
       </c>
       <c r="D16">
-        <v>6.94456030667521</v>
+        <v>7.042016981493123</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.77811269973589</v>
+        <v>18.42038700718221</v>
       </c>
       <c r="G16">
-        <v>19.0410265926952</v>
+        <v>18.48722648245159</v>
       </c>
       <c r="H16">
-        <v>6.58778945351965</v>
+        <v>6.587061212423147</v>
       </c>
       <c r="I16">
-        <v>2.740674602680844</v>
+        <v>2.78341935520229</v>
       </c>
       <c r="J16">
-        <v>8.339423700774114</v>
+        <v>8.497923744357525</v>
       </c>
       <c r="K16">
-        <v>12.51863188787449</v>
+        <v>12.19172056669158</v>
       </c>
       <c r="L16">
-        <v>6.169187147538252</v>
+        <v>10.41383337542877</v>
       </c>
       <c r="M16">
-        <v>12.45813611365269</v>
+        <v>7.648349565766432</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.16656943439131</v>
       </c>
       <c r="O16">
-        <v>10.46893873584656</v>
+        <v>12.43252247311592</v>
       </c>
       <c r="P16">
-        <v>12.31949192624694</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.13646156299091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.49530377002721</v>
+      </c>
+      <c r="R16">
+        <v>12.32284453407478</v>
+      </c>
+      <c r="S16">
+        <v>12.86612235338369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.65336803130501</v>
+        <v>13.46002460723127</v>
       </c>
       <c r="C17">
-        <v>8.247009686198265</v>
+        <v>8.433705591333327</v>
       </c>
       <c r="D17">
-        <v>7.210264545398324</v>
+        <v>7.297849545402439</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.11910772378359</v>
+        <v>18.79731701287964</v>
       </c>
       <c r="G17">
-        <v>19.34051007790269</v>
+        <v>18.46801611970956</v>
       </c>
       <c r="H17">
-        <v>5.85717622852976</v>
+        <v>5.85523066721225</v>
       </c>
       <c r="I17">
-        <v>2.701576316069711</v>
+        <v>2.750266292720177</v>
       </c>
       <c r="J17">
-        <v>8.415499640933918</v>
+        <v>8.668958301493422</v>
       </c>
       <c r="K17">
-        <v>12.65724195034058</v>
+        <v>12.33658627095972</v>
       </c>
       <c r="L17">
-        <v>6.239035845405335</v>
+        <v>10.53167025709913</v>
       </c>
       <c r="M17">
-        <v>12.26183100535522</v>
+        <v>7.726122456154756</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.238539967476933</v>
       </c>
       <c r="O17">
-        <v>10.75956809876809</v>
+        <v>12.2509239622082</v>
       </c>
       <c r="P17">
-        <v>12.3445296091604</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.29399652232746</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.79000494265668</v>
+      </c>
+      <c r="R17">
+        <v>12.33526110619816</v>
+      </c>
+      <c r="S17">
+        <v>13.04829785642188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.51358305820535</v>
+        <v>13.31658500009389</v>
       </c>
       <c r="C18">
-        <v>8.243099531404104</v>
+        <v>8.453891475466364</v>
       </c>
       <c r="D18">
-        <v>7.817766430390094</v>
+        <v>7.905707601558522</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.83463600192398</v>
+        <v>19.50966167339996</v>
       </c>
       <c r="G18">
-        <v>19.98157406036511</v>
+        <v>18.9609056145203</v>
       </c>
       <c r="H18">
-        <v>4.614773572810192</v>
+        <v>4.611819389955437</v>
       </c>
       <c r="I18">
-        <v>2.68339311662626</v>
+        <v>2.733191267542712</v>
       </c>
       <c r="J18">
-        <v>8.530655286063404</v>
+        <v>8.81854588540827</v>
       </c>
       <c r="K18">
-        <v>12.85568406011164</v>
+        <v>12.52093772235609</v>
       </c>
       <c r="L18">
-        <v>6.488475071495449</v>
+        <v>10.67279092190409</v>
       </c>
       <c r="M18">
-        <v>12.17396529721347</v>
+        <v>7.857332889552538</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.487757817495407</v>
       </c>
       <c r="O18">
-        <v>11.49203690025564</v>
+        <v>12.16960703922916</v>
       </c>
       <c r="P18">
-        <v>12.33894907483391</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.5700330264052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.52536033732616</v>
+      </c>
+      <c r="R18">
+        <v>12.32076566342041</v>
+      </c>
+      <c r="S18">
+        <v>13.3212173592943</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.46917648546398</v>
+        <v>13.25480291368814</v>
       </c>
       <c r="C19">
-        <v>8.340091248786836</v>
+        <v>8.590763226014127</v>
       </c>
       <c r="D19">
-        <v>8.666993713735424</v>
+        <v>8.761095220000344</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.77889774887323</v>
+        <v>20.42720229857011</v>
       </c>
       <c r="G19">
-        <v>20.8018932033493</v>
+        <v>19.7131443986284</v>
       </c>
       <c r="H19">
-        <v>3.144680399984574</v>
+        <v>3.140790451250824</v>
       </c>
       <c r="I19">
-        <v>2.694558755199322</v>
+        <v>2.744058494062599</v>
       </c>
       <c r="J19">
-        <v>8.661857298775754</v>
+        <v>8.95094090251612</v>
       </c>
       <c r="K19">
-        <v>13.07221751152167</v>
+        <v>12.71130242453751</v>
       </c>
       <c r="L19">
-        <v>7.007277733498158</v>
+        <v>10.81315970053641</v>
       </c>
       <c r="M19">
-        <v>12.18237045432554</v>
+        <v>8.009780032756652</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.004712625900574</v>
       </c>
       <c r="O19">
-        <v>12.52448961511349</v>
+        <v>12.1800168837566</v>
       </c>
       <c r="P19">
-        <v>12.31607471082284</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.90347281120336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>12.56024477981561</v>
+      </c>
+      <c r="R19">
+        <v>12.2912940497643</v>
+      </c>
+      <c r="S19">
+        <v>13.63507585445605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.73641123558625</v>
+        <v>13.46900318489212</v>
       </c>
       <c r="C20">
-        <v>8.640277829882772</v>
+        <v>8.968639841913664</v>
       </c>
       <c r="D20">
-        <v>10.10329595340833</v>
+        <v>10.21992341304077</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.36000361657414</v>
+        <v>21.9155253623624</v>
       </c>
       <c r="G20">
-        <v>22.16862115285691</v>
+        <v>21.22825171395778</v>
       </c>
       <c r="H20">
-        <v>1.596758354856168</v>
+        <v>1.595089356094278</v>
       </c>
       <c r="I20">
-        <v>2.769633420950129</v>
+        <v>2.810586552392722</v>
       </c>
       <c r="J20">
-        <v>8.846722146026645</v>
+        <v>9.034398057908827</v>
       </c>
       <c r="K20">
-        <v>13.3657833061331</v>
+        <v>12.94087567337613</v>
       </c>
       <c r="L20">
-        <v>8.136650266928021</v>
+        <v>10.94995676475132</v>
       </c>
       <c r="M20">
-        <v>12.45743855298942</v>
+        <v>8.258769557161743</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.128943286439732</v>
       </c>
       <c r="O20">
-        <v>14.30359978522104</v>
+        <v>12.44572883626577</v>
       </c>
       <c r="P20">
-        <v>12.23536664948852</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.41919599255405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.34040607569016</v>
+      </c>
+      <c r="R20">
+        <v>12.20700470331447</v>
+      </c>
+      <c r="S20">
+        <v>14.08400801163684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.53169307060877</v>
+        <v>14.16932416862407</v>
       </c>
       <c r="C21">
-        <v>9.053667005416161</v>
+        <v>9.376010861999276</v>
       </c>
       <c r="D21">
-        <v>10.66418062949747</v>
+        <v>10.85464960233183</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.9506157696041</v>
+        <v>22.23669439821055</v>
       </c>
       <c r="G21">
-        <v>22.69514390630414</v>
+        <v>23.41174517783583</v>
       </c>
       <c r="H21">
-        <v>1.771296101285853</v>
+        <v>1.759553015121943</v>
       </c>
       <c r="I21">
-        <v>2.912938800427438</v>
+        <v>2.932166561268382</v>
       </c>
       <c r="J21">
-        <v>8.845040730517779</v>
+        <v>8.444575569502161</v>
       </c>
       <c r="K21">
-        <v>13.31498376151466</v>
+        <v>12.76733677814738</v>
       </c>
       <c r="L21">
-        <v>8.432507542592111</v>
+        <v>10.7342646002911</v>
       </c>
       <c r="M21">
-        <v>13.10216414488866</v>
+        <v>8.308995316041365</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.418195230838386</v>
       </c>
       <c r="O21">
-        <v>15.104906919992</v>
+        <v>13.02453165953029</v>
       </c>
       <c r="P21">
-        <v>12.08196417192497</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.5284788023528</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.12415616415825</v>
+      </c>
+      <c r="R21">
+        <v>12.07689340899791</v>
+      </c>
+      <c r="S21">
+        <v>13.99791577959379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.04001771852134</v>
+        <v>14.61749772431735</v>
       </c>
       <c r="C22">
-        <v>9.28420072881797</v>
+        <v>9.592926880644399</v>
       </c>
       <c r="D22">
-        <v>10.95490127691964</v>
+        <v>11.19574245488222</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.28600005559879</v>
+        <v>22.38543885822437</v>
       </c>
       <c r="G22">
-        <v>23.01733519609695</v>
+        <v>24.94913961255501</v>
       </c>
       <c r="H22">
-        <v>1.911901481675439</v>
+        <v>1.891710119076751</v>
       </c>
       <c r="I22">
-        <v>2.998882181765721</v>
+        <v>3.003085200602281</v>
       </c>
       <c r="J22">
-        <v>8.842444303468618</v>
+        <v>8.099421454997001</v>
       </c>
       <c r="K22">
-        <v>13.2843462886937</v>
+        <v>12.64951841885408</v>
       </c>
       <c r="L22">
-        <v>8.565249226482765</v>
+        <v>10.5953507352179</v>
       </c>
       <c r="M22">
-        <v>13.5027548303707</v>
+        <v>8.346985587157837</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.547312673893028</v>
       </c>
       <c r="O22">
-        <v>15.53677253435233</v>
+        <v>13.3803167545877</v>
       </c>
       <c r="P22">
-        <v>11.98399438592295</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.59425394085014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.54352718319809</v>
+      </c>
+      <c r="R22">
+        <v>11.99630111044141</v>
+      </c>
+      <c r="S22">
+        <v>13.92502093514618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.78432719817338</v>
+        <v>14.3984067193974</v>
       </c>
       <c r="C23">
-        <v>9.138566739719758</v>
+        <v>9.464671892897004</v>
       </c>
       <c r="D23">
-        <v>10.7964561600083</v>
+        <v>11.00326182815434</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.12369749572373</v>
+        <v>22.34699904988492</v>
       </c>
       <c r="G23">
-        <v>22.87446616000031</v>
+        <v>23.95919000392323</v>
       </c>
       <c r="H23">
-        <v>1.837612873202406</v>
+        <v>1.822496665825453</v>
       </c>
       <c r="I23">
-        <v>2.948692265511418</v>
+        <v>2.960152323214695</v>
       </c>
       <c r="J23">
-        <v>8.848518615619705</v>
+        <v>8.331304204807093</v>
       </c>
       <c r="K23">
-        <v>13.31396508309783</v>
+        <v>12.73504358919993</v>
       </c>
       <c r="L23">
-        <v>8.495276878461343</v>
+        <v>10.68309157869842</v>
       </c>
       <c r="M23">
-        <v>13.29013738491543</v>
+        <v>8.34700576708158</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.479239566601198</v>
       </c>
       <c r="O23">
-        <v>15.30630171598429</v>
+        <v>13.19839529202012</v>
       </c>
       <c r="P23">
-        <v>12.03574218874647</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.57109314836439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.32193571106906</v>
+      </c>
+      <c r="R23">
+        <v>12.03707327350808</v>
+      </c>
+      <c r="S23">
+        <v>13.99372351553229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.74676925563568</v>
+        <v>13.478260407721</v>
       </c>
       <c r="C24">
-        <v>8.609080541721299</v>
+        <v>8.938754516443929</v>
       </c>
       <c r="D24">
-        <v>10.18395151354343</v>
+        <v>10.30061759615623</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.48601193806606</v>
+        <v>22.04042433582316</v>
       </c>
       <c r="G24">
-        <v>22.30076080064689</v>
+        <v>21.344316919617</v>
       </c>
       <c r="H24">
-        <v>1.572720721846375</v>
+        <v>1.571042456180188</v>
       </c>
       <c r="I24">
-        <v>2.762119875688341</v>
+        <v>2.800900378716521</v>
       </c>
       <c r="J24">
-        <v>8.868969387361378</v>
+        <v>9.060005916648841</v>
       </c>
       <c r="K24">
-        <v>13.41224587506814</v>
+        <v>12.98402564885384</v>
       </c>
       <c r="L24">
-        <v>8.223398986622364</v>
+        <v>10.98186376077646</v>
       </c>
       <c r="M24">
-        <v>12.45200973185996</v>
+        <v>8.292879832269453</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.215578986443383</v>
       </c>
       <c r="O24">
-        <v>14.40452409992633</v>
+        <v>12.44087964078373</v>
       </c>
       <c r="P24">
-        <v>12.23524218694912</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.47471570705225</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.44165489636869</v>
+      </c>
+      <c r="R24">
+        <v>12.20521864866796</v>
+      </c>
+      <c r="S24">
+        <v>14.13830934192479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.5251415387165</v>
+        <v>12.33759191500096</v>
       </c>
       <c r="C25">
-        <v>8.006030417649402</v>
+        <v>8.200007329902407</v>
       </c>
       <c r="D25">
-        <v>9.484331655835874</v>
+        <v>9.58177941058652</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.80973715052573</v>
+        <v>21.45366714382883</v>
       </c>
       <c r="G25">
-        <v>21.71640501275039</v>
+        <v>20.70316480237837</v>
       </c>
       <c r="H25">
-        <v>1.907535665604009</v>
+        <v>1.894777900124538</v>
       </c>
       <c r="I25">
-        <v>2.554346474810952</v>
+        <v>2.615541661856041</v>
       </c>
       <c r="J25">
-        <v>8.902294134946981</v>
+        <v>9.138403031067881</v>
       </c>
       <c r="K25">
-        <v>13.53548900374426</v>
+        <v>13.15294920279728</v>
       </c>
       <c r="L25">
-        <v>7.918198564347269</v>
+        <v>11.24884435917517</v>
       </c>
       <c r="M25">
-        <v>11.47734966298995</v>
+        <v>8.195394192052024</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.919106143770449</v>
       </c>
       <c r="O25">
-        <v>13.36752820962756</v>
+        <v>11.47647371086919</v>
       </c>
       <c r="P25">
-        <v>12.45645186404065</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.39472897666692</v>
+        <v>13.4026867768667</v>
+      </c>
+      <c r="R25">
+        <v>12.40466056619385</v>
+      </c>
+      <c r="S25">
+        <v>14.1176627752193</v>
       </c>
     </row>
   </sheetData>
